--- a/2022/total.xlsx
+++ b/2022/total.xlsx
@@ -902,9 +902,7 @@
       <c r="AC4" s="3" t="n">
         <v>6759</v>
       </c>
-      <c r="AD4" s="3" t="n">
-        <v>95</v>
-      </c>
+      <c r="AD4" s="3" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -997,7 +995,7 @@
         <v>8628</v>
       </c>
       <c r="AD5" s="3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1181,7 +1179,7 @@
         <v>12879</v>
       </c>
       <c r="AD7" s="3" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8">
@@ -1271,7 +1269,7 @@
         <v>4702</v>
       </c>
       <c r="AD8" s="3" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
@@ -1531,7 +1529,7 @@
         <v>8347</v>
       </c>
       <c r="AD11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
@@ -1613,7 +1611,7 @@
         <v>9311</v>
       </c>
       <c r="AD12" t="n">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
@@ -1698,7 +1696,7 @@
         <v>5825</v>
       </c>
       <c r="AD13" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
@@ -1788,7 +1786,7 @@
         <v>8105</v>
       </c>
       <c r="AD14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -1878,7 +1876,7 @@
         <v>9790</v>
       </c>
       <c r="AD15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -1960,7 +1958,7 @@
         <v>4713</v>
       </c>
       <c r="AD16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
@@ -2019,9 +2017,7 @@
       <c r="U17" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="V17" s="3" t="n">
-        <v>473</v>
-      </c>
+      <c r="V17" s="3" t="inlineStr"/>
       <c r="W17" s="3" t="n">
         <v>50</v>
       </c>
@@ -2041,9 +2037,7 @@
       <c r="AC17" s="3" t="n">
         <v>8735</v>
       </c>
-      <c r="AD17" s="3" t="n">
-        <v>9</v>
-      </c>
+      <c r="AD17" s="3" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -2118,7 +2112,7 @@
         <v>8960</v>
       </c>
       <c r="AD18" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
@@ -2205,7 +2199,7 @@
         <v>9972</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
@@ -2278,7 +2272,7 @@
         <v>2186</v>
       </c>
       <c r="AD20" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21">
@@ -2354,7 +2348,7 @@
         <v>3723</v>
       </c>
       <c r="AD21" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22">
@@ -2439,7 +2433,7 @@
         <v>13382</v>
       </c>
       <c r="AD22" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23">
@@ -2515,7 +2509,7 @@
         <v>6488</v>
       </c>
       <c r="AD23" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24">
@@ -2593,7 +2587,7 @@
         <v>6777</v>
       </c>
       <c r="AD24" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25">
@@ -2677,7 +2671,7 @@
         <v>13931</v>
       </c>
       <c r="AD25" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26">
@@ -2767,7 +2761,7 @@
         <v>10268</v>
       </c>
       <c r="AD26" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
@@ -2854,7 +2848,7 @@
         <v>13836</v>
       </c>
       <c r="AD27" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28">
@@ -2941,7 +2935,7 @@
         <v>11579</v>
       </c>
       <c r="AD28" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29">
@@ -3028,7 +3022,7 @@
         <v>10375</v>
       </c>
       <c r="AD29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
@@ -3115,7 +3109,7 @@
         <v>10426</v>
       </c>
       <c r="AD30" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
@@ -3200,7 +3194,7 @@
         <v>4790</v>
       </c>
       <c r="AD31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32">
@@ -3284,7 +3278,7 @@
         <v>4843</v>
       </c>
       <c r="AD32" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33">
@@ -3363,7 +3357,7 @@
         <v>8140</v>
       </c>
       <c r="AD33" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -3447,7 +3441,7 @@
         <v>9698</v>
       </c>
       <c r="AD34" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35">
@@ -3540,9 +3534,7 @@
       <c r="AC35" s="3" t="n">
         <v>8163</v>
       </c>
-      <c r="AD35" s="3" t="n">
-        <v>190</v>
-      </c>
+      <c r="AD35" s="3" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -3631,7 +3623,7 @@
         <v>6218</v>
       </c>
       <c r="AD36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -3704,7 +3696,7 @@
         <v>10518</v>
       </c>
       <c r="AD37" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="38">
@@ -3785,7 +3777,7 @@
         <v>8589</v>
       </c>
       <c r="AD38" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -3878,7 +3870,7 @@
         <v>9163</v>
       </c>
       <c r="AD39" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40">
@@ -3957,7 +3949,7 @@
         <v>10255</v>
       </c>
       <c r="AD40" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="41">
@@ -4044,7 +4036,7 @@
         <v>10225</v>
       </c>
       <c r="AD41" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42">
@@ -4128,7 +4120,7 @@
         <v>6205</v>
       </c>
       <c r="AD42" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43">
@@ -4212,7 +4204,7 @@
         <v>8145</v>
       </c>
       <c r="AD43" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44">
@@ -4288,7 +4280,7 @@
         <v>11229</v>
       </c>
       <c r="AD44" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45">
@@ -4437,7 +4429,7 @@
         <v>7552</v>
       </c>
       <c r="AD46" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="47">
@@ -4521,7 +4513,7 @@
         <v>7341</v>
       </c>
       <c r="AD47" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48">
@@ -4608,7 +4600,7 @@
         <v>6755</v>
       </c>
       <c r="AD48" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49">
@@ -4689,7 +4681,7 @@
         <v>10010</v>
       </c>
       <c r="AD49" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="50">
@@ -4779,7 +4771,7 @@
         <v>8475</v>
       </c>
       <c r="AD50" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="51">
@@ -4866,7 +4858,7 @@
         <v>10328</v>
       </c>
       <c r="AD51" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52">
@@ -4945,7 +4937,7 @@
         <v>9151</v>
       </c>
       <c r="AD52" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53">
@@ -5029,7 +5021,7 @@
         <v>4170</v>
       </c>
       <c r="AD53" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54">
@@ -5111,7 +5103,7 @@
         <v>8794</v>
       </c>
       <c r="AD54" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55">
@@ -5196,7 +5188,7 @@
         <v>8331</v>
       </c>
       <c r="AD55" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56">
@@ -5275,7 +5267,7 @@
         <v>11024</v>
       </c>
       <c r="AD56" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57">
@@ -5359,7 +5351,7 @@
         <v>9788</v>
       </c>
       <c r="AD57" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58">
@@ -5509,7 +5501,7 @@
         <v>1112</v>
       </c>
       <c r="AD59" t="n">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60">
@@ -5593,7 +5585,7 @@
         <v>8091</v>
       </c>
       <c r="AD60" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61">
@@ -5674,7 +5666,7 @@
         <v>6710</v>
       </c>
       <c r="AD61" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62">
@@ -5761,7 +5753,7 @@
         <v>6348</v>
       </c>
       <c r="AD62" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63">
@@ -5845,7 +5837,7 @@
         <v>5932</v>
       </c>
       <c r="AD63" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64">
@@ -5927,7 +5919,7 @@
         <v>5964</v>
       </c>
       <c r="AD64" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65">
@@ -6003,7 +5995,7 @@
         <v>7024</v>
       </c>
       <c r="AD65" t="n">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -6093,7 +6085,7 @@
         <v>14517</v>
       </c>
       <c r="AD66" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67">
@@ -6166,7 +6158,7 @@
         <v>3567</v>
       </c>
       <c r="AD67" t="n">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="68">
@@ -6242,7 +6234,7 @@
         <v>6031</v>
       </c>
       <c r="AD68" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="69">
@@ -6326,7 +6318,7 @@
         <v>10926</v>
       </c>
       <c r="AD69" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70">
@@ -6401,7 +6393,7 @@
         <v>10595</v>
       </c>
       <c r="AD70" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="71">
@@ -6485,7 +6477,7 @@
         <v>1886</v>
       </c>
       <c r="AD71" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="72">
@@ -6564,7 +6556,7 @@
         <v>9677</v>
       </c>
       <c r="AD72" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="73">
@@ -6642,7 +6634,7 @@
         <v>4295</v>
       </c>
       <c r="AD73" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="74">
@@ -6718,7 +6710,7 @@
         <v>4645</v>
       </c>
       <c r="AD74" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="75">
@@ -6802,7 +6794,7 @@
         <v>4011</v>
       </c>
       <c r="AD75" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76">
@@ -6878,7 +6870,7 @@
         <v>16480</v>
       </c>
       <c r="AD76" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="77">
@@ -7026,7 +7018,7 @@
         <v>9097</v>
       </c>
       <c r="AD78" t="n">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="79">
@@ -7102,7 +7094,7 @@
         <v>9207</v>
       </c>
       <c r="AD79" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="80">
@@ -7177,7 +7169,7 @@
         <v>10644</v>
       </c>
       <c r="AD80" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81">
@@ -7261,7 +7253,7 @@
         <v>10841</v>
       </c>
       <c r="AD81" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="82">
@@ -7342,7 +7334,7 @@
         <v>4746</v>
       </c>
       <c r="AD82" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="83">
@@ -7426,7 +7418,7 @@
         <v>9617</v>
       </c>
       <c r="AD83" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="84">
@@ -7511,7 +7503,7 @@
         <v>8752</v>
       </c>
       <c r="AD84" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85">
@@ -7598,7 +7590,7 @@
         <v>8651</v>
       </c>
       <c r="AD85" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="86">
@@ -7685,7 +7677,7 @@
         <v>4804</v>
       </c>
       <c r="AD86" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
@@ -7769,7 +7761,7 @@
         <v>9826</v>
       </c>
       <c r="AD87" t="n">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="88">
@@ -7850,7 +7842,7 @@
         <v>10642</v>
       </c>
       <c r="AD88" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89">
@@ -7935,7 +7927,7 @@
         <v>6983</v>
       </c>
       <c r="AD89" t="n">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="90">
@@ -8019,7 +8011,7 @@
         <v>8117</v>
       </c>
       <c r="AD90" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="91">
@@ -8100,7 +8092,7 @@
         <v>9362</v>
       </c>
       <c r="AD91" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="92">
@@ -8181,7 +8173,7 @@
         <v>10341</v>
       </c>
       <c r="AD92" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="93">
@@ -8254,7 +8246,7 @@
         <v>7336</v>
       </c>
       <c r="AD93" t="n">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
@@ -8284,7 +8276,7 @@
         <v>0</v>
       </c>
       <c r="N94" t="n">
-        <v>634</v>
+        <v>684</v>
       </c>
       <c r="O94" t="n">
         <v>50</v>
@@ -8329,7 +8321,7 @@
         <v>8465</v>
       </c>
       <c r="AD94" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95">
@@ -8407,7 +8399,7 @@
         <v>6813</v>
       </c>
       <c r="AD95" t="n">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="96">
@@ -8486,7 +8478,7 @@
         <v>7918</v>
       </c>
       <c r="AD96" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97">
@@ -8628,7 +8620,7 @@
         <v>5409</v>
       </c>
       <c r="AD98" t="n">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99">
@@ -8712,7 +8704,7 @@
         <v>5408</v>
       </c>
       <c r="AD99" t="n">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100">
@@ -8787,7 +8779,7 @@
         <v>581</v>
       </c>
       <c r="AD100" t="n">
-        <v>272</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101">
@@ -8871,7 +8863,7 @@
         <v>6600</v>
       </c>
       <c r="AD101" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="102">
@@ -8919,7 +8911,7 @@
         <v>0</v>
       </c>
       <c r="V102" t="n">
-        <v>473</v>
+        <v>498</v>
       </c>
       <c r="W102" t="n">
         <v>50</v>
@@ -9019,7 +9011,7 @@
         <v>5302</v>
       </c>
       <c r="AD103" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104">
@@ -9167,7 +9159,7 @@
         <v>2912</v>
       </c>
       <c r="AD105" t="n">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="106">
@@ -9246,7 +9238,7 @@
         <v>12754</v>
       </c>
       <c r="AD106" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="107">
@@ -9324,7 +9316,7 @@
         <v>7219</v>
       </c>
       <c r="AD107" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108">
@@ -9408,7 +9400,7 @@
         <v>7934</v>
       </c>
       <c r="AD108" t="n">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="109">
@@ -9478,7 +9470,7 @@
         <v>4378</v>
       </c>
       <c r="AD109" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="110">
@@ -9551,7 +9543,7 @@
         <v>1180</v>
       </c>
       <c r="AD110" t="n">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="111">
@@ -9635,7 +9627,7 @@
         <v>7385</v>
       </c>
       <c r="AD111" t="n">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112">
@@ -9848,7 +9840,7 @@
         <v>7466</v>
       </c>
       <c r="AD114" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="115">
@@ -9924,7 +9916,7 @@
         <v>7847</v>
       </c>
       <c r="AD115" t="n">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="116">
@@ -10066,7 +10058,7 @@
         <v>0</v>
       </c>
       <c r="AD117" t="n">
-        <v>381</v>
+        <v>450</v>
       </c>
     </row>
     <row r="118">
@@ -10139,7 +10131,7 @@
         <v>1481</v>
       </c>
       <c r="AD118" t="n">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="119">
@@ -10212,7 +10204,7 @@
         <v>8154</v>
       </c>
       <c r="AD119" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="120">
@@ -10287,7 +10279,7 @@
         <v>5804</v>
       </c>
       <c r="AD120" t="n">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121">
@@ -10435,7 +10427,7 @@
         <v>5239</v>
       </c>
       <c r="AD122" t="n">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="123">
@@ -10516,7 +10508,7 @@
         <v>13390</v>
       </c>
       <c r="AD123" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="124">
@@ -10600,7 +10592,7 @@
         <v>7768</v>
       </c>
       <c r="AD124" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="125">
@@ -10678,7 +10670,7 @@
         <v>8015</v>
       </c>
       <c r="AD125" t="n">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126">
@@ -10759,7 +10751,7 @@
         <v>6691</v>
       </c>
       <c r="AD126" t="n">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="127">
@@ -10837,7 +10829,7 @@
         <v>8194</v>
       </c>
       <c r="AD127" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="128">
@@ -10967,7 +10959,7 @@
         <v>2328</v>
       </c>
       <c r="AD129" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="130">
@@ -11051,7 +11043,7 @@
         <v>5027</v>
       </c>
       <c r="AD130" t="n">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131">
@@ -11192,7 +11184,7 @@
         <v>2637</v>
       </c>
       <c r="AD132" t="n">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="133">
@@ -11342,7 +11334,7 @@
         <v>7842</v>
       </c>
       <c r="AD134" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="135">
@@ -11420,7 +11412,7 @@
         <v>8418</v>
       </c>
       <c r="AD135" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="136">
@@ -11501,7 +11493,7 @@
         <v>5600</v>
       </c>
       <c r="AD136" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="137">
@@ -11565,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="AD137" t="n">
-        <v>381</v>
+        <v>417</v>
       </c>
     </row>
     <row r="138">
@@ -11643,7 +11635,7 @@
         <v>1136</v>
       </c>
       <c r="AD138" t="n">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139">
@@ -11704,7 +11696,7 @@
         <v>9201</v>
       </c>
       <c r="AD139" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140">
@@ -11765,7 +11757,7 @@
         <v>9035</v>
       </c>
       <c r="AD140" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="141">
@@ -11829,7 +11821,7 @@
         <v>750</v>
       </c>
       <c r="AD141" t="n">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="142">
@@ -11899,7 +11891,7 @@
         <v>4001</v>
       </c>
       <c r="AD142" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143">
@@ -11974,7 +11966,7 @@
         <v>4917</v>
       </c>
       <c r="AD143" t="n">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="144">
@@ -12312,7 +12304,7 @@
         <v>0</v>
       </c>
       <c r="AD148" t="n">
-        <v>381</v>
+        <v>451</v>
       </c>
     </row>
     <row r="149">
@@ -12390,7 +12382,7 @@
         <v>11617</v>
       </c>
       <c r="AD149" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="150">
@@ -12468,7 +12460,7 @@
         <v>7504</v>
       </c>
       <c r="AD150" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="151">
@@ -12558,7 +12550,7 @@
         <v>5752</v>
       </c>
       <c r="AD151" t="n">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="152">
@@ -12630,7 +12622,7 @@
         <v>4450</v>
       </c>
       <c r="AD152" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="153">
@@ -12706,7 +12698,7 @@
         <v>7939</v>
       </c>
       <c r="AD153" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="154">
@@ -12764,7 +12756,7 @@
         <v>11603</v>
       </c>
       <c r="AD154" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="155">
@@ -12845,7 +12837,7 @@
         <v>4280</v>
       </c>
       <c r="AD155" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="156">
@@ -12926,7 +12918,7 @@
         <v>5686</v>
       </c>
       <c r="AD156" t="n">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="157">
@@ -12998,7 +12990,7 @@
         <v>7576</v>
       </c>
       <c r="AD157" t="n">
-        <v>362</v>
+        <v>359</v>
       </c>
     </row>
     <row r="158">
@@ -13076,7 +13068,7 @@
         <v>1075</v>
       </c>
       <c r="AD158" t="n">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="159">
@@ -13139,7 +13131,7 @@
         <v>8962</v>
       </c>
       <c r="AD159" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="160">
@@ -13275,7 +13267,7 @@
         <v>7211</v>
       </c>
       <c r="AD161" t="n">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="162">
@@ -13350,7 +13342,7 @@
         <v>10789</v>
       </c>
       <c r="AD162" t="n">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="163">
@@ -13434,7 +13426,7 @@
         <v>6062</v>
       </c>
       <c r="AD163" t="n">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164">
@@ -13506,7 +13498,7 @@
         <v>7166</v>
       </c>
       <c r="AD164" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="165">
@@ -13572,7 +13564,7 @@
         <v>9272</v>
       </c>
       <c r="AD165" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="166">
@@ -13633,7 +13625,7 @@
         <v>4362</v>
       </c>
       <c r="AD166" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="167">
@@ -13708,7 +13700,7 @@
         <v>10392</v>
       </c>
       <c r="AD167" t="n">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168">
@@ -13837,7 +13829,7 @@
         <v>9422</v>
       </c>
       <c r="AD169" t="n">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="170">
@@ -14019,7 +14011,7 @@
         <v>5525</v>
       </c>
       <c r="AD172" t="n">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="173">
@@ -14160,7 +14152,7 @@
         <v>2137</v>
       </c>
       <c r="AD174" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="175">
@@ -14295,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="AD176" t="n">
-        <v>381</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177">
@@ -14353,7 +14345,7 @@
         <v>3267</v>
       </c>
       <c r="AD177" t="n">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="178">
@@ -14420,7 +14412,7 @@
         <v>4400</v>
       </c>
       <c r="AD178" t="n">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="179">
@@ -14546,7 +14538,7 @@
         <v>4336</v>
       </c>
       <c r="AD180" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="181">
@@ -14684,7 +14676,7 @@
         <v>8030</v>
       </c>
       <c r="AD182" t="n">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="183">
@@ -14748,7 +14740,7 @@
         <v>2001</v>
       </c>
       <c r="AD183" t="n">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="184">
@@ -14794,7 +14786,7 @@
         <v>0</v>
       </c>
       <c r="V184" t="n">
-        <v>473</v>
+        <v>570</v>
       </c>
       <c r="W184" t="n">
         <v>50</v>
@@ -14812,7 +14804,7 @@
         <v>7526</v>
       </c>
       <c r="AD184" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="185">
@@ -14887,7 +14879,7 @@
         <v>1281</v>
       </c>
       <c r="AD185" t="n">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="186">
@@ -14959,7 +14951,7 @@
         <v>9443</v>
       </c>
       <c r="AD186" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="187">
@@ -15043,7 +15035,7 @@
         <v>0</v>
       </c>
       <c r="N188" t="n">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="O188" t="n">
         <v>50</v>
@@ -15082,7 +15074,7 @@
         <v>8587</v>
       </c>
       <c r="AD188" t="n">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="189">
@@ -15148,7 +15140,7 @@
         <v>9266</v>
       </c>
       <c r="AD189" t="n">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="190">
@@ -15208,7 +15200,7 @@
         <v>8848</v>
       </c>
       <c r="AD190" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="191">
@@ -15277,7 +15269,7 @@
         <v>1733</v>
       </c>
       <c r="AD191" t="n">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="192">
@@ -15347,7 +15339,7 @@
         <v>5986</v>
       </c>
       <c r="AD192" t="n">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="193">
@@ -15422,7 +15414,7 @@
         <v>1181</v>
       </c>
       <c r="AD193" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194">
@@ -15486,7 +15478,7 @@
         <v>0</v>
       </c>
       <c r="AD194" t="n">
-        <v>381</v>
+        <v>444</v>
       </c>
     </row>
     <row r="195">
@@ -15625,7 +15617,7 @@
         <v>9410</v>
       </c>
       <c r="AD196" t="n">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="197">
@@ -15700,7 +15692,7 @@
         <v>6062</v>
       </c>
       <c r="AD197" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="198">
@@ -15772,7 +15764,7 @@
         <v>7791</v>
       </c>
       <c r="AD198" t="n">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="199">
@@ -15967,7 +15959,7 @@
         <v>0</v>
       </c>
       <c r="AD201" t="n">
-        <v>381</v>
+        <v>447</v>
       </c>
     </row>
     <row r="202">
@@ -16108,7 +16100,7 @@
         <v>8646</v>
       </c>
       <c r="AD203" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="204">
@@ -16186,7 +16178,7 @@
         <v>9764</v>
       </c>
       <c r="AD204" t="n">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="205">
@@ -16255,7 +16247,7 @@
         <v>7616</v>
       </c>
       <c r="AD205" t="n">
-        <v>363</v>
+        <v>360</v>
       </c>
     </row>
     <row r="206">
@@ -16450,7 +16442,7 @@
         <v>0</v>
       </c>
       <c r="AD208" t="n">
-        <v>381</v>
+        <v>428</v>
       </c>
     </row>
     <row r="209">
@@ -16519,7 +16511,7 @@
         <v>7630</v>
       </c>
       <c r="AD209" t="n">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="210">
@@ -16588,7 +16580,7 @@
         <v>2568</v>
       </c>
       <c r="AD210" t="n">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="211">
@@ -16652,7 +16644,7 @@
         <v>3478</v>
       </c>
       <c r="AD211" t="n">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="212">
@@ -16716,7 +16708,7 @@
         <v>2720</v>
       </c>
       <c r="AD212" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="213">
@@ -16854,7 +16846,7 @@
         <v>5784</v>
       </c>
       <c r="AD214" t="n">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="215">
@@ -16966,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="AD216" t="n">
-        <v>381</v>
+        <v>502</v>
       </c>
     </row>
     <row r="217">
@@ -17231,7 +17223,7 @@
         <v>0</v>
       </c>
       <c r="AD221" t="n">
-        <v>381</v>
+        <v>427</v>
       </c>
     </row>
     <row r="222">
@@ -17457,7 +17449,7 @@
         <v>0</v>
       </c>
       <c r="AD225" t="n">
-        <v>381</v>
+        <v>465</v>
       </c>
     </row>
     <row r="226">
@@ -17512,7 +17504,7 @@
         <v>4565</v>
       </c>
       <c r="AD226" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227">
@@ -17584,7 +17576,7 @@
         <v>9520</v>
       </c>
       <c r="AD227" t="n">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="228">
@@ -17653,7 +17645,7 @@
         <v>5980</v>
       </c>
       <c r="AD228" t="n">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="229">
@@ -17814,7 +17806,7 @@
         <v>0</v>
       </c>
       <c r="AD231" t="n">
-        <v>381</v>
+        <v>429</v>
       </c>
     </row>
     <row r="232">
@@ -17940,7 +17932,7 @@
         <v>9089</v>
       </c>
       <c r="AD233" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="234">
@@ -18007,7 +17999,7 @@
         <v>8967</v>
       </c>
       <c r="AD234" t="n">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="235">
@@ -18124,7 +18116,7 @@
         <v>8824</v>
       </c>
       <c r="AD236" t="n">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="237">
@@ -18193,7 +18185,7 @@
         <v>0</v>
       </c>
       <c r="AD237" t="n">
-        <v>381</v>
+        <v>434</v>
       </c>
     </row>
     <row r="238">
@@ -18223,7 +18215,7 @@
         <v>0</v>
       </c>
       <c r="N238" t="n">
-        <v>634</v>
+        <v>707</v>
       </c>
       <c r="O238" t="n">
         <v>50</v>
@@ -18262,7 +18254,7 @@
         <v>6697</v>
       </c>
       <c r="AD238" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="239">
@@ -18497,7 +18489,7 @@
         <v>5537</v>
       </c>
       <c r="AD242" t="n">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="243">
@@ -18548,7 +18540,7 @@
         <v>0</v>
       </c>
       <c r="V243" t="n">
-        <v>473</v>
+        <v>572</v>
       </c>
       <c r="W243" t="n">
         <v>50</v>
@@ -18560,7 +18552,7 @@
         <v>10532</v>
       </c>
       <c r="AD243" t="n">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="244">
@@ -18660,7 +18652,7 @@
         <v>0</v>
       </c>
       <c r="V245" t="n">
-        <v>473</v>
+        <v>568</v>
       </c>
       <c r="AB245" t="n">
         <v>0</v>
@@ -18941,7 +18933,7 @@
         <v>4927</v>
       </c>
       <c r="AD250" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="251">
@@ -19068,7 +19060,7 @@
         <v>5028</v>
       </c>
       <c r="AD252" t="n">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="253">
@@ -19128,7 +19120,7 @@
         <v>6354</v>
       </c>
       <c r="AD253" t="n">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="254">
@@ -19179,7 +19171,7 @@
         <v>11961</v>
       </c>
       <c r="AD254" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="255">
@@ -19305,7 +19297,7 @@
         <v>7959</v>
       </c>
       <c r="AD256" t="n">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="257">
@@ -19368,7 +19360,7 @@
         <v>10787</v>
       </c>
       <c r="AD257" t="n">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="258">
@@ -19428,7 +19420,7 @@
         <v>9080</v>
       </c>
       <c r="AD258" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="259">
@@ -19543,7 +19535,7 @@
         <v>3095</v>
       </c>
       <c r="AD260" t="n">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="261">
@@ -19649,7 +19641,7 @@
         <v>0</v>
       </c>
       <c r="AD262" t="n">
-        <v>381</v>
+        <v>519</v>
       </c>
     </row>
     <row r="263">
@@ -19790,7 +19782,7 @@
         <v>0</v>
       </c>
       <c r="N265" t="n">
-        <v>634</v>
+        <v>690</v>
       </c>
       <c r="O265" t="n">
         <v>50</v>
@@ -19877,7 +19869,7 @@
         <v>2354</v>
       </c>
       <c r="AD266" t="n">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="267">
@@ -19925,7 +19917,7 @@
         <v>0</v>
       </c>
       <c r="V267" t="n">
-        <v>473</v>
+        <v>543</v>
       </c>
       <c r="W267" t="n">
         <v>50</v>
@@ -19943,7 +19935,7 @@
         <v>6773</v>
       </c>
       <c r="AD267" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="268">
@@ -20060,7 +20052,7 @@
         <v>2895</v>
       </c>
       <c r="AD269" t="n">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="270">
@@ -20120,7 +20112,7 @@
         <v>5281</v>
       </c>
       <c r="AD270" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="271">
@@ -20296,7 +20288,7 @@
         <v>8312</v>
       </c>
       <c r="AD273" t="n">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="274">
@@ -20356,7 +20348,7 @@
         <v>8012</v>
       </c>
       <c r="AD274" t="n">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="275">
@@ -20417,7 +20409,7 @@
         <v>6491</v>
       </c>
       <c r="AD275" t="n">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="276">
@@ -20541,7 +20533,7 @@
         <v>3811</v>
       </c>
       <c r="AD277" t="n">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="278">
@@ -20601,7 +20593,7 @@
         <v>4536</v>
       </c>
       <c r="AD278" t="n">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="279">
@@ -20665,7 +20657,7 @@
         <v>5863</v>
       </c>
       <c r="AD279" t="n">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="280">
@@ -20732,7 +20724,7 @@
         <v>8499</v>
       </c>
       <c r="AD280" t="n">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="281">
@@ -21299,7 +21291,7 @@
         <v>0</v>
       </c>
       <c r="V291" t="n">
-        <v>473</v>
+        <v>544</v>
       </c>
       <c r="AB291" t="n">
         <v>0</v>
@@ -21356,7 +21348,7 @@
         <v>0</v>
       </c>
       <c r="V292" t="n">
-        <v>473</v>
+        <v>594</v>
       </c>
       <c r="AB292" t="n">
         <v>0</v>
@@ -21365,7 +21357,7 @@
         <v>0</v>
       </c>
       <c r="AD292" t="n">
-        <v>381</v>
+        <v>527</v>
       </c>
     </row>
     <row r="293">
@@ -21422,7 +21414,7 @@
         <v>0</v>
       </c>
       <c r="AD293" t="n">
-        <v>381</v>
+        <v>512</v>
       </c>
     </row>
     <row r="294">
@@ -21488,7 +21480,7 @@
         <v>1391</v>
       </c>
       <c r="AD294" t="n">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="295">
@@ -21551,7 +21543,7 @@
         <v>4573</v>
       </c>
       <c r="AD295" t="n">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="296">
@@ -21602,7 +21594,7 @@
         <v>0</v>
       </c>
       <c r="AD296" t="n">
-        <v>381</v>
+        <v>510</v>
       </c>
     </row>
     <row r="297">
@@ -21726,7 +21718,7 @@
         <v>6363</v>
       </c>
       <c r="AD298" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="299">
@@ -21792,7 +21784,7 @@
         <v>1740</v>
       </c>
       <c r="AD299" t="n">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="300">
@@ -21855,7 +21847,7 @@
         <v>8165</v>
       </c>
       <c r="AD300" t="n">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="301">
@@ -21912,7 +21904,7 @@
         <v>1816</v>
       </c>
       <c r="AD301" t="n">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="302">
@@ -21975,7 +21967,7 @@
         <v>901</v>
       </c>
       <c r="AD302" t="n">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="303">
@@ -22093,7 +22085,7 @@
         <v>2940</v>
       </c>
       <c r="AD304" t="n">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="305">
@@ -22153,7 +22145,7 @@
         <v>2759</v>
       </c>
       <c r="AD305" t="n">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="306">
@@ -22213,7 +22205,7 @@
         <v>4603</v>
       </c>
       <c r="AD306" t="n">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="307">
@@ -22268,7 +22260,7 @@
         <v>10610</v>
       </c>
       <c r="AD307" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="308">
@@ -22331,7 +22323,7 @@
         <v>8706</v>
       </c>
       <c r="AD308" t="n">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="309">
@@ -22383,7 +22375,7 @@
         <v>6133</v>
       </c>
       <c r="AD309" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="310">
@@ -22434,7 +22426,7 @@
         <v>8664</v>
       </c>
       <c r="AD310" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="311">
@@ -22543,7 +22535,7 @@
         <v>0</v>
       </c>
       <c r="AD312" t="n">
-        <v>381</v>
+        <v>496</v>
       </c>
     </row>
     <row r="313">
@@ -22573,7 +22565,7 @@
         <v>0</v>
       </c>
       <c r="N313" t="n">
-        <v>634</v>
+        <v>728</v>
       </c>
       <c r="O313" t="n">
         <v>50</v>
@@ -22603,7 +22595,7 @@
         <v>6763</v>
       </c>
       <c r="AD313" t="n">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="314">
@@ -22654,7 +22646,7 @@
         <v>0</v>
       </c>
       <c r="V314" t="n">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="W314" t="n">
         <v>50</v>
@@ -22672,7 +22664,7 @@
         <v>7650</v>
       </c>
       <c r="AD314" t="n">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="315">
@@ -23010,7 +23002,7 @@
         <v>0</v>
       </c>
       <c r="AD321" t="n">
-        <v>381</v>
+        <v>422</v>
       </c>
     </row>
     <row r="322">
@@ -23353,7 +23345,7 @@
         <v>0</v>
       </c>
       <c r="AD328" t="n">
-        <v>381</v>
+        <v>389</v>
       </c>
     </row>
     <row r="329">
@@ -23462,7 +23454,7 @@
         <v>4392</v>
       </c>
       <c r="AD330" t="n">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="331">
@@ -23579,7 +23571,7 @@
         <v>3014</v>
       </c>
       <c r="AD332" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="333">
@@ -23688,7 +23680,7 @@
         <v>0</v>
       </c>
       <c r="AD334" t="n">
-        <v>381</v>
+        <v>426</v>
       </c>
     </row>
     <row r="335">
@@ -23740,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="AD335" t="n">
-        <v>381</v>
+        <v>425</v>
       </c>
     </row>
     <row r="336">
@@ -23851,7 +23843,7 @@
         <v>0</v>
       </c>
       <c r="AD337" t="n">
-        <v>381</v>
+        <v>520</v>
       </c>
     </row>
     <row r="338">
@@ -23968,7 +23960,7 @@
         <v>0</v>
       </c>
       <c r="AD339" t="n">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="340">
@@ -24031,7 +24023,7 @@
         <v>8713</v>
       </c>
       <c r="AD340" t="n">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="341">
@@ -24089,7 +24081,7 @@
         <v>8573</v>
       </c>
       <c r="AD341" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="342">
@@ -24152,7 +24144,7 @@
         <v>1574</v>
       </c>
       <c r="AD342" t="n">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="343">
@@ -24215,7 +24207,7 @@
         <v>0</v>
       </c>
       <c r="AD343" t="n">
-        <v>381</v>
+        <v>498</v>
       </c>
     </row>
     <row r="344">
@@ -24275,7 +24267,7 @@
         <v>0</v>
       </c>
       <c r="AD344" t="n">
-        <v>381</v>
+        <v>503</v>
       </c>
     </row>
     <row r="345">
@@ -24389,7 +24381,7 @@
         <v>9897</v>
       </c>
       <c r="AD346" t="n">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="347">
@@ -24449,7 +24441,7 @@
         <v>11420</v>
       </c>
       <c r="AD347" t="n">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="348">
@@ -24498,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="V348" t="n">
-        <v>473</v>
+        <v>562</v>
       </c>
       <c r="AB348" t="n">
         <v>0</v>
@@ -24559,7 +24551,7 @@
         <v>9447</v>
       </c>
       <c r="AD349" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="350">
@@ -24625,7 +24617,7 @@
         <v>6434</v>
       </c>
       <c r="AD350" t="n">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="351">
@@ -24677,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="AD351" t="n">
-        <v>381</v>
+        <v>416</v>
       </c>
     </row>
     <row r="352">
@@ -24729,7 +24721,7 @@
         <v>0</v>
       </c>
       <c r="AD352" t="n">
-        <v>381</v>
+        <v>470</v>
       </c>
     </row>
     <row r="353">
@@ -24762,7 +24754,7 @@
         <v>0</v>
       </c>
       <c r="N353" t="n">
-        <v>634</v>
+        <v>663</v>
       </c>
       <c r="O353" t="n">
         <v>50</v>
@@ -24795,7 +24787,7 @@
         <v>0</v>
       </c>
       <c r="AD353" t="n">
-        <v>381</v>
+        <v>383</v>
       </c>
     </row>
     <row r="354">
@@ -24861,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="AD354" t="n">
-        <v>381</v>
+        <v>456</v>
       </c>
     </row>
     <row r="355">
@@ -25024,7 +25016,7 @@
         <v>4040</v>
       </c>
       <c r="AD357" t="n">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="358">
@@ -25082,7 +25074,7 @@
         <v>4486</v>
       </c>
       <c r="AD358" t="n">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="359">
@@ -25128,7 +25120,7 @@
         <v>5193</v>
       </c>
       <c r="AD359" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="360">
@@ -25174,7 +25166,7 @@
         <v>5768</v>
       </c>
       <c r="AD360" t="n">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="361">
@@ -25272,7 +25264,7 @@
         <v>7614</v>
       </c>
       <c r="AD362" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="363">
@@ -25373,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="AD364" t="n">
-        <v>381</v>
+        <v>472</v>
       </c>
     </row>
     <row r="365">
@@ -25430,7 +25422,7 @@
         <v>5330</v>
       </c>
       <c r="AD365" t="n">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="366">
@@ -25485,7 +25477,7 @@
         <v>5234</v>
       </c>
       <c r="AD366" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="367">
@@ -25548,7 +25540,7 @@
         <v>8560</v>
       </c>
       <c r="AD367" t="n">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="368">
@@ -25608,7 +25600,7 @@
         <v>5100</v>
       </c>
       <c r="AD368" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="369">
@@ -26132,7 +26124,7 @@
         <v>4586</v>
       </c>
       <c r="AD379" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="380">
@@ -26269,7 +26261,7 @@
         <v>0</v>
       </c>
       <c r="V382" t="n">
-        <v>473</v>
+        <v>560</v>
       </c>
       <c r="AB382" t="n">
         <v>0</v>
@@ -26462,7 +26454,7 @@
         <v>5760</v>
       </c>
       <c r="AD386" t="n">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="387">
@@ -26568,7 +26560,7 @@
         <v>7490</v>
       </c>
       <c r="AD388" t="n">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="389">
@@ -26634,7 +26626,7 @@
         <v>4987</v>
       </c>
       <c r="AD389" t="n">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="390">
@@ -26697,7 +26689,7 @@
         <v>4634</v>
       </c>
       <c r="AD390" t="n">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="391">
@@ -26851,7 +26843,7 @@
         <v>3377</v>
       </c>
       <c r="AD393" t="n">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="394">
@@ -26905,7 +26897,7 @@
         <v>4720</v>
       </c>
       <c r="AD394" t="n">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="395">
@@ -27022,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="AD396" t="n">
-        <v>381</v>
+        <v>446</v>
       </c>
     </row>
     <row r="397">
@@ -27466,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="V405" t="n">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="AB405" t="n">
         <v>0</v>
@@ -27475,7 +27467,7 @@
         <v>0</v>
       </c>
       <c r="AD405" t="n">
-        <v>381</v>
+        <v>439</v>
       </c>
     </row>
     <row r="406">
@@ -27574,7 +27566,7 @@
         <v>0</v>
       </c>
       <c r="V407" t="n">
-        <v>473</v>
+        <v>553</v>
       </c>
       <c r="AB407" t="n">
         <v>0</v>
@@ -27583,7 +27575,7 @@
         <v>0</v>
       </c>
       <c r="AD407" t="n">
-        <v>381</v>
+        <v>487</v>
       </c>
     </row>
     <row r="408">
@@ -27779,7 +27771,7 @@
         <v>0</v>
       </c>
       <c r="V411" t="n">
-        <v>473</v>
+        <v>505</v>
       </c>
       <c r="AB411" t="n">
         <v>0</v>
@@ -27815,7 +27807,7 @@
         <v>0</v>
       </c>
       <c r="N412" t="n">
-        <v>634</v>
+        <v>817</v>
       </c>
       <c r="O412" t="n">
         <v>15</v>
@@ -28036,7 +28028,7 @@
         <v>0</v>
       </c>
       <c r="V416" t="n">
-        <v>473</v>
+        <v>582</v>
       </c>
       <c r="W416" t="n">
         <v>15</v>
@@ -28051,7 +28043,7 @@
         <v>8664</v>
       </c>
       <c r="AD416" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="417">
@@ -28111,7 +28103,7 @@
         <v>0</v>
       </c>
       <c r="AD417" t="n">
-        <v>381</v>
+        <v>516</v>
       </c>
     </row>
     <row r="418">
@@ -28171,7 +28163,7 @@
         <v>0</v>
       </c>
       <c r="AD418" t="n">
-        <v>381</v>
+        <v>459</v>
       </c>
     </row>
     <row r="419">
@@ -28216,7 +28208,7 @@
         <v>0</v>
       </c>
       <c r="V419" t="n">
-        <v>473</v>
+        <v>547</v>
       </c>
       <c r="W419" t="n">
         <v>50</v>
@@ -28228,7 +28220,7 @@
         <v>2999</v>
       </c>
       <c r="AD419" t="n">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="420">
@@ -28279,7 +28271,7 @@
         <v>6847</v>
       </c>
       <c r="AD420" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="421">
@@ -28330,7 +28322,7 @@
         <v>7213</v>
       </c>
       <c r="AD421" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="422">
@@ -28453,7 +28445,7 @@
         <v>0</v>
       </c>
       <c r="AD423" t="n">
-        <v>381</v>
+        <v>404</v>
       </c>
     </row>
     <row r="424">
@@ -28624,7 +28616,7 @@
         <v>5977</v>
       </c>
       <c r="AD426" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="427">
@@ -28678,7 +28670,7 @@
         <v>9070</v>
       </c>
       <c r="AD427" t="n">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="428">
@@ -28711,7 +28703,7 @@
         <v>0</v>
       </c>
       <c r="N428" t="n">
-        <v>634</v>
+        <v>656</v>
       </c>
       <c r="O428" t="n">
         <v>50</v>
@@ -28738,7 +28730,7 @@
         <v>9575</v>
       </c>
       <c r="AD428" t="n">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="429">
@@ -28801,7 +28793,7 @@
         <v>7655</v>
       </c>
       <c r="AD429" t="n">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="430">
@@ -28864,7 +28856,7 @@
         <v>0</v>
       </c>
       <c r="AD430" t="n">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="431">
@@ -28912,7 +28904,7 @@
         <v>5840</v>
       </c>
       <c r="AD431" t="n">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="432">
@@ -28960,7 +28952,7 @@
         <v>5960</v>
       </c>
       <c r="AD432" t="n">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="433">
@@ -29008,7 +29000,7 @@
         <v>6614</v>
       </c>
       <c r="AD433" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="434">
@@ -29122,7 +29114,7 @@
         <v>6648</v>
       </c>
       <c r="AD435" t="n">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="436">
@@ -29236,7 +29228,7 @@
         <v>10531</v>
       </c>
       <c r="AD437" t="n">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="438">
@@ -29296,7 +29288,7 @@
         <v>6408</v>
       </c>
       <c r="AD438" t="n">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="439">
@@ -29359,7 +29351,7 @@
         <v>1171</v>
       </c>
       <c r="AD439" t="n">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="440">
@@ -29413,7 +29405,7 @@
         <v>3815</v>
       </c>
       <c r="AD440" t="n">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="441">
@@ -29462,7 +29454,7 @@
         <v>1533</v>
       </c>
       <c r="AD441" t="n">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="442">
@@ -29573,7 +29565,7 @@
         <v>7349</v>
       </c>
       <c r="AD443" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="444">
@@ -29642,7 +29634,7 @@
         <v>9142</v>
       </c>
       <c r="AD444" t="n">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="445">
@@ -29782,7 +29774,7 @@
         <v>0</v>
       </c>
       <c r="AD447" t="n">
-        <v>381</v>
+        <v>442</v>
       </c>
     </row>
     <row r="448">
@@ -29923,7 +29915,7 @@
         <v>0</v>
       </c>
       <c r="N450" t="n">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="O450" t="n">
         <v>50</v>
@@ -29998,7 +29990,7 @@
         <v>7833</v>
       </c>
       <c r="AD451" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="452">
@@ -30028,7 +30020,7 @@
         <v>0</v>
       </c>
       <c r="N452" t="n">
-        <v>634</v>
+        <v>719</v>
       </c>
       <c r="O452" t="n">
         <v>50</v>
@@ -30152,7 +30144,7 @@
         <v>6001</v>
       </c>
       <c r="AD454" t="n">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="455">
@@ -30204,7 +30196,7 @@
         <v>3712</v>
       </c>
       <c r="AD455" t="n">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="456">
@@ -30322,7 +30314,7 @@
         <v>8951</v>
       </c>
       <c r="AD457" t="n">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="458">
@@ -30569,7 +30561,7 @@
         <v>3013</v>
       </c>
       <c r="AD462" t="n">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="463">
@@ -30667,7 +30659,7 @@
         <v>2493</v>
       </c>
       <c r="AD464" t="n">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="465">
@@ -31249,7 +31241,7 @@
         <v>2700</v>
       </c>
       <c r="AD476" t="n">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="477">
@@ -31670,7 +31662,7 @@
         <v>0</v>
       </c>
       <c r="V485" t="n">
-        <v>473</v>
+        <v>579</v>
       </c>
       <c r="AB485" t="n">
         <v>0</v>
@@ -31679,7 +31671,7 @@
         <v>0</v>
       </c>
       <c r="AD485" t="n">
-        <v>381</v>
+        <v>517</v>
       </c>
     </row>
     <row r="486">
@@ -31827,7 +31819,7 @@
         <v>0</v>
       </c>
       <c r="AD488" t="n">
-        <v>381</v>
+        <v>501</v>
       </c>
     </row>
     <row r="489">
@@ -31966,7 +31958,7 @@
         <v>0</v>
       </c>
       <c r="V491" t="n">
-        <v>473</v>
+        <v>595</v>
       </c>
       <c r="AB491" t="n">
         <v>0</v>
@@ -32206,7 +32198,7 @@
         <v>0</v>
       </c>
       <c r="AD496" t="n">
-        <v>381</v>
+        <v>440</v>
       </c>
     </row>
     <row r="497">
@@ -32501,7 +32493,7 @@
         <v>0</v>
       </c>
       <c r="AD502" t="n">
-        <v>381</v>
+        <v>438</v>
       </c>
     </row>
     <row r="503">
@@ -32747,7 +32739,7 @@
         <v>0</v>
       </c>
       <c r="V507" t="n">
-        <v>473</v>
+        <v>536</v>
       </c>
       <c r="W507" t="n">
         <v>15</v>
@@ -32762,7 +32754,7 @@
         <v>2021</v>
       </c>
       <c r="AD507" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="508">
@@ -32819,7 +32811,7 @@
         <v>3561</v>
       </c>
       <c r="AD508" t="n">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="509">
@@ -32871,7 +32863,7 @@
         <v>4646</v>
       </c>
       <c r="AD509" t="n">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="510">
@@ -32928,7 +32920,7 @@
         <v>8890</v>
       </c>
       <c r="AD510" t="n">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="511">
@@ -32991,7 +32983,7 @@
         <v>2076</v>
       </c>
       <c r="AD511" t="n">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="512">
@@ -33042,7 +33034,7 @@
         <v>964</v>
       </c>
       <c r="AD512" t="n">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="513">
@@ -33093,7 +33085,7 @@
         <v>0</v>
       </c>
       <c r="AD513" t="n">
-        <v>381</v>
+        <v>509</v>
       </c>
     </row>
     <row r="514">
@@ -33139,7 +33131,7 @@
         <v>6087</v>
       </c>
       <c r="AD514" t="n">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="515">
@@ -33164,7 +33156,7 @@
         <v>0</v>
       </c>
       <c r="N515" t="n">
-        <v>634</v>
+        <v>698</v>
       </c>
       <c r="T515" t="n">
         <v>0</v>
@@ -33188,7 +33180,7 @@
         <v>7531</v>
       </c>
       <c r="AD515" t="n">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="516">
@@ -33239,7 +33231,7 @@
         <v>8753</v>
       </c>
       <c r="AD516" t="n">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="517">
@@ -33345,7 +33337,7 @@
         <v>9297</v>
       </c>
       <c r="AD518" t="n">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="519">
@@ -33402,7 +33394,7 @@
         <v>0</v>
       </c>
       <c r="AD519" t="n">
-        <v>381</v>
+        <v>449</v>
       </c>
     </row>
     <row r="520">
@@ -33703,7 +33695,7 @@
         <v>2899</v>
       </c>
       <c r="AD525" t="n">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="526">
@@ -33748,7 +33740,7 @@
         <v>7552</v>
       </c>
       <c r="AD526" t="n">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="527">
@@ -33794,7 +33786,7 @@
         <v>6348</v>
       </c>
       <c r="AD527" t="n">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="528">
@@ -33824,7 +33816,7 @@
         <v>0</v>
       </c>
       <c r="N528" t="n">
-        <v>634</v>
+        <v>750</v>
       </c>
       <c r="O528" t="n">
         <v>50</v>
@@ -33851,7 +33843,7 @@
         <v>3282</v>
       </c>
       <c r="AD528" t="n">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="529">
@@ -34003,7 +33995,7 @@
         <v>5600</v>
       </c>
       <c r="AD531" t="n">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="532">
@@ -34114,7 +34106,7 @@
         <v>8654</v>
       </c>
       <c r="AD533" t="n">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="534">
@@ -34168,7 +34160,7 @@
         <v>0</v>
       </c>
       <c r="AD534" t="n">
-        <v>381</v>
+        <v>491</v>
       </c>
     </row>
     <row r="535">
@@ -34344,7 +34336,7 @@
         <v>0</v>
       </c>
       <c r="N538" t="n">
-        <v>634</v>
+        <v>672</v>
       </c>
       <c r="O538" t="n">
         <v>50</v>
@@ -34368,7 +34360,7 @@
         <v>8993</v>
       </c>
       <c r="AD538" t="n">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="539">
@@ -34473,7 +34465,7 @@
         <v>8523</v>
       </c>
       <c r="AD540" t="n">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="541">
@@ -34678,7 +34670,7 @@
         <v>6858</v>
       </c>
       <c r="AD544" t="n">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="545">
@@ -34721,7 +34713,7 @@
         <v>6510</v>
       </c>
       <c r="AD545" t="n">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="546">
@@ -34767,7 +34759,7 @@
         <v>4643</v>
       </c>
       <c r="AD546" t="n">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="547">
@@ -34824,7 +34816,7 @@
         <v>5278</v>
       </c>
       <c r="AD547" t="n">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="548">
@@ -34986,7 +34978,7 @@
         <v>1486</v>
       </c>
       <c r="AD550" t="n">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="551">
@@ -35016,7 +35008,7 @@
         <v>0</v>
       </c>
       <c r="N551" t="n">
-        <v>634</v>
+        <v>767</v>
       </c>
       <c r="O551" t="n">
         <v>50</v>
@@ -35136,7 +35128,7 @@
         <v>6401</v>
       </c>
       <c r="AD553" t="n">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="554">
@@ -35238,7 +35230,7 @@
         <v>7326</v>
       </c>
       <c r="AD555" t="n">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="556">
@@ -35343,7 +35335,7 @@
         <v>0</v>
       </c>
       <c r="AD557" t="n">
-        <v>381</v>
+        <v>474</v>
       </c>
     </row>
     <row r="558">
@@ -35403,7 +35395,7 @@
         <v>6153</v>
       </c>
       <c r="AD558" t="n">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="559">
@@ -35457,7 +35449,7 @@
         <v>8412</v>
       </c>
       <c r="AD559" t="n">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="560">
@@ -35508,7 +35500,7 @@
         <v>8255</v>
       </c>
       <c r="AD560" t="n">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="561">
@@ -35565,7 +35557,7 @@
         <v>4953</v>
       </c>
       <c r="AD561" t="n">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="562">
@@ -35595,7 +35587,7 @@
         <v>0</v>
       </c>
       <c r="N562" t="n">
-        <v>634</v>
+        <v>752</v>
       </c>
       <c r="T562" t="n">
         <v>0</v>
@@ -35619,7 +35611,7 @@
         <v>7755</v>
       </c>
       <c r="AD562" t="n">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="563">
@@ -35662,7 +35654,7 @@
         <v>8346</v>
       </c>
       <c r="AD563" t="n">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="564">
@@ -35784,7 +35776,7 @@
         <v>0</v>
       </c>
       <c r="V566" t="n">
-        <v>473</v>
+        <v>538</v>
       </c>
       <c r="W566" t="n">
         <v>15</v>
@@ -35796,7 +35788,7 @@
         <v>1226</v>
       </c>
       <c r="AD566" t="n">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="567">
@@ -35891,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="AD568" t="n">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="569">
@@ -35943,7 +35935,7 @@
         <v>2982</v>
       </c>
       <c r="AD569" t="n">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="570">
@@ -35988,7 +35980,7 @@
         <v>0</v>
       </c>
       <c r="V570" t="n">
-        <v>473</v>
+        <v>592</v>
       </c>
       <c r="W570" t="n">
         <v>15</v>
@@ -36000,7 +35992,7 @@
         <v>4399</v>
       </c>
       <c r="AD570" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="571">
@@ -36054,7 +36046,7 @@
         <v>0</v>
       </c>
       <c r="AD571" t="n">
-        <v>381</v>
+        <v>499</v>
       </c>
     </row>
     <row r="572">
@@ -36162,7 +36154,7 @@
         <v>3675</v>
       </c>
       <c r="AD573" t="n">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="574">
@@ -36204,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="V574" t="n">
-        <v>473</v>
+        <v>548</v>
       </c>
       <c r="W574" t="n">
         <v>15</v>
@@ -36216,7 +36208,7 @@
         <v>5119</v>
       </c>
       <c r="AD574" t="n">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="575">
@@ -36265,7 +36257,7 @@
         <v>0</v>
       </c>
       <c r="AD575" t="n">
-        <v>381</v>
+        <v>471</v>
       </c>
     </row>
     <row r="576">
@@ -36314,7 +36306,7 @@
         <v>0</v>
       </c>
       <c r="AD576" t="n">
-        <v>381</v>
+        <v>423</v>
       </c>
     </row>
     <row r="577">
@@ -36365,7 +36357,7 @@
         <v>6292</v>
       </c>
       <c r="AD577" t="n">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="578">
@@ -36419,7 +36411,7 @@
         <v>8233</v>
       </c>
       <c r="AD578" t="n">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="579">
@@ -36473,7 +36465,7 @@
         <v>0</v>
       </c>
       <c r="AD579" t="n">
-        <v>381</v>
+        <v>430</v>
       </c>
     </row>
     <row r="580">
@@ -36524,7 +36516,7 @@
         <v>8215</v>
       </c>
       <c r="AD580" t="n">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="581">
@@ -36619,7 +36611,7 @@
         <v>10659</v>
       </c>
       <c r="AD582" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="583">
@@ -36652,7 +36644,7 @@
         <v>0</v>
       </c>
       <c r="N583" t="n">
-        <v>634</v>
+        <v>658</v>
       </c>
       <c r="O583" t="n">
         <v>30</v>
@@ -36679,7 +36671,7 @@
         <v>4370</v>
       </c>
       <c r="AD583" t="n">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="584">
@@ -36719,7 +36711,7 @@
         <v>5448</v>
       </c>
       <c r="AD584" t="n">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="585">
@@ -36782,7 +36774,7 @@
         <v>4583</v>
       </c>
       <c r="AD585" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="586">
@@ -36839,7 +36831,7 @@
         <v>4088</v>
       </c>
       <c r="AD586" t="n">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="587">
@@ -37017,7 +37009,7 @@
         <v>0</v>
       </c>
       <c r="V590" t="n">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="AB590" t="n">
         <v>0</v>
@@ -37324,7 +37316,7 @@
         <v>0</v>
       </c>
       <c r="N597" t="n">
-        <v>634</v>
+        <v>800</v>
       </c>
       <c r="O597" t="n">
         <v>50</v>
@@ -37720,7 +37712,7 @@
         <v>877</v>
       </c>
       <c r="AD606" t="n">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="607">
@@ -37850,7 +37842,7 @@
         <v>0</v>
       </c>
       <c r="V609" t="n">
-        <v>473</v>
+        <v>518</v>
       </c>
       <c r="AB609" t="n">
         <v>0</v>
@@ -38148,7 +38140,7 @@
         <v>0</v>
       </c>
       <c r="N616" t="n">
-        <v>634</v>
+        <v>721</v>
       </c>
       <c r="O616" t="n">
         <v>50</v>
@@ -38172,7 +38164,7 @@
         <v>0</v>
       </c>
       <c r="AD616" t="n">
-        <v>381</v>
+        <v>448</v>
       </c>
     </row>
     <row r="617">
@@ -38387,7 +38379,7 @@
         <v>0</v>
       </c>
       <c r="V621" t="n">
-        <v>473</v>
+        <v>525</v>
       </c>
       <c r="AB621" t="n">
         <v>0</v>
@@ -38424,7 +38416,7 @@
         <v>0</v>
       </c>
       <c r="V622" t="n">
-        <v>473</v>
+        <v>511</v>
       </c>
       <c r="W622" t="n">
         <v>50</v>
@@ -38436,7 +38428,7 @@
         <v>1365</v>
       </c>
       <c r="AD622" t="n">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="623">
@@ -38893,7 +38885,7 @@
         <v>0</v>
       </c>
       <c r="N633" t="n">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="O633" t="n">
         <v>50</v>
@@ -38914,7 +38906,7 @@
         <v>0</v>
       </c>
       <c r="AD633" t="n">
-        <v>381</v>
+        <v>418</v>
       </c>
     </row>
     <row r="634">
@@ -39035,7 +39027,7 @@
         <v>0</v>
       </c>
       <c r="N636" t="n">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="O636" t="n">
         <v>50</v>
@@ -39056,7 +39048,7 @@
         <v>0</v>
       </c>
       <c r="AD636" t="n">
-        <v>381</v>
+        <v>412</v>
       </c>
     </row>
     <row r="637">
@@ -39104,7 +39096,7 @@
         <v>0</v>
       </c>
       <c r="AD637" t="n">
-        <v>381</v>
+        <v>467</v>
       </c>
     </row>
     <row r="638">
@@ -39144,7 +39136,7 @@
         <v>0</v>
       </c>
       <c r="V638" t="n">
-        <v>473</v>
+        <v>501</v>
       </c>
       <c r="AB638" t="n">
         <v>0</v>
@@ -39195,7 +39187,7 @@
         <v>2317</v>
       </c>
       <c r="AD639" t="n">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="640">
@@ -39333,7 +39325,7 @@
         <v>0</v>
       </c>
       <c r="V642" t="n">
-        <v>473</v>
+        <v>563</v>
       </c>
       <c r="AB642" t="n">
         <v>0</v>
@@ -39342,7 +39334,7 @@
         <v>0</v>
       </c>
       <c r="AD642" t="n">
-        <v>381</v>
+        <v>497</v>
       </c>
     </row>
     <row r="643">
@@ -39469,7 +39461,7 @@
         <v>0</v>
       </c>
       <c r="V645" t="n">
-        <v>473</v>
+        <v>565</v>
       </c>
       <c r="AB645" t="n">
         <v>0</v>
@@ -39505,7 +39497,7 @@
         <v>0</v>
       </c>
       <c r="N646" t="n">
-        <v>634</v>
+        <v>682</v>
       </c>
       <c r="O646" t="n">
         <v>50</v>
@@ -39526,7 +39518,7 @@
         <v>0</v>
       </c>
       <c r="AD646" t="n">
-        <v>381</v>
+        <v>410</v>
       </c>
     </row>
     <row r="647">
@@ -39574,7 +39566,7 @@
         <v>0</v>
       </c>
       <c r="AD647" t="n">
-        <v>381</v>
+        <v>475</v>
       </c>
     </row>
     <row r="648">
@@ -39914,7 +39906,7 @@
         <v>0</v>
       </c>
       <c r="V655" t="n">
-        <v>473</v>
+        <v>526</v>
       </c>
       <c r="AB655" t="n">
         <v>0</v>
@@ -40076,7 +40068,7 @@
         <v>0</v>
       </c>
       <c r="N659" t="n">
-        <v>634</v>
+        <v>678</v>
       </c>
       <c r="O659" t="n">
         <v>50</v>
@@ -40179,7 +40171,7 @@
         <v>3140</v>
       </c>
       <c r="AD661" t="n">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="662">
@@ -40230,7 +40222,7 @@
         <v>0</v>
       </c>
       <c r="AD662" t="n">
-        <v>381</v>
+        <v>401</v>
       </c>
     </row>
     <row r="663">
@@ -40260,7 +40252,7 @@
         <v>0</v>
       </c>
       <c r="N663" t="n">
-        <v>634</v>
+        <v>804</v>
       </c>
       <c r="O663" t="n">
         <v>50</v>
@@ -40414,7 +40406,7 @@
         <v>0</v>
       </c>
       <c r="V666" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="AB666" t="n">
         <v>0</v>
@@ -40423,7 +40415,7 @@
         <v>0</v>
       </c>
       <c r="AD666" t="n">
-        <v>381</v>
+        <v>441</v>
       </c>
     </row>
     <row r="667">
@@ -40508,7 +40500,7 @@
         <v>0</v>
       </c>
       <c r="V668" t="n">
-        <v>473</v>
+        <v>598</v>
       </c>
       <c r="AB668" t="n">
         <v>0</v>
@@ -40602,7 +40594,7 @@
         <v>0</v>
       </c>
       <c r="AD670" t="n">
-        <v>381</v>
+        <v>431</v>
       </c>
     </row>
     <row r="671">
@@ -40677,7 +40669,7 @@
         <v>0</v>
       </c>
       <c r="N672" t="n">
-        <v>634</v>
+        <v>793</v>
       </c>
       <c r="O672" t="n">
         <v>50</v>
@@ -40698,7 +40690,7 @@
         <v>0</v>
       </c>
       <c r="AD672" t="n">
-        <v>381</v>
+        <v>504</v>
       </c>
     </row>
     <row r="673">
@@ -40768,7 +40760,7 @@
         <v>0</v>
       </c>
       <c r="N674" t="n">
-        <v>634</v>
+        <v>808</v>
       </c>
       <c r="O674" t="n">
         <v>50</v>
@@ -40960,7 +40952,7 @@
         <v>0</v>
       </c>
       <c r="N678" t="n">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="O678" t="n">
         <v>50</v>
@@ -41527,7 +41519,7 @@
         <v>4417</v>
       </c>
       <c r="AD690" t="n">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="691">
@@ -41560,7 +41552,7 @@
         <v>0</v>
       </c>
       <c r="N691" t="n">
-        <v>634</v>
+        <v>643</v>
       </c>
       <c r="O691" t="n">
         <v>50</v>
@@ -41711,7 +41703,7 @@
         <v>4733</v>
       </c>
       <c r="AD694" t="n">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="695">
@@ -41926,7 +41918,7 @@
         <v>5122</v>
       </c>
       <c r="AD699" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="700">
@@ -42012,7 +42004,7 @@
         <v>0</v>
       </c>
       <c r="AD701" t="n">
-        <v>381</v>
+        <v>405</v>
       </c>
     </row>
     <row r="702">
@@ -42037,7 +42029,7 @@
         <v>0</v>
       </c>
       <c r="N702" t="n">
-        <v>634</v>
+        <v>742</v>
       </c>
       <c r="O702" t="n">
         <v>50</v>
@@ -42268,7 +42260,7 @@
         <v>0</v>
       </c>
       <c r="AD707" t="n">
-        <v>381</v>
+        <v>524</v>
       </c>
     </row>
     <row r="708">
@@ -42388,7 +42380,7 @@
         <v>6690</v>
       </c>
       <c r="AD710" t="n">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="711">
@@ -42428,7 +42420,7 @@
         <v>6851</v>
       </c>
       <c r="AD711" t="n">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="712">
@@ -42482,7 +42474,7 @@
         <v>3597</v>
       </c>
       <c r="AD712" t="n">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="713">
@@ -42565,7 +42557,7 @@
         <v>0</v>
       </c>
       <c r="AD714" t="n">
-        <v>381</v>
+        <v>435</v>
       </c>
     </row>
     <row r="715">
@@ -42613,7 +42605,7 @@
         <v>0</v>
       </c>
       <c r="AD715" t="n">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="716">
@@ -42748,7 +42740,7 @@
         <v>7313</v>
       </c>
       <c r="AD718" t="n">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="719">
@@ -42796,7 +42788,7 @@
         <v>0</v>
       </c>
       <c r="AD719" t="n">
-        <v>381</v>
+        <v>461</v>
       </c>
     </row>
     <row r="720">
@@ -43001,7 +42993,7 @@
         <v>0</v>
       </c>
       <c r="N724" t="n">
-        <v>634</v>
+        <v>795</v>
       </c>
       <c r="T724" t="n">
         <v>0</v>
@@ -43019,7 +43011,7 @@
         <v>7818</v>
       </c>
       <c r="AD724" t="n">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="725">
@@ -43044,7 +43036,7 @@
         <v>0</v>
       </c>
       <c r="N725" t="n">
-        <v>634</v>
+        <v>709</v>
       </c>
       <c r="O725" t="n">
         <v>50</v>
@@ -43144,7 +43136,7 @@
         <v>0</v>
       </c>
       <c r="V727" t="n">
-        <v>473</v>
+        <v>517</v>
       </c>
       <c r="AB727" t="n">
         <v>0</v>
@@ -43183,7 +43175,7 @@
         <v>0</v>
       </c>
       <c r="N728" t="n">
-        <v>634</v>
+        <v>646</v>
       </c>
       <c r="O728" t="n">
         <v>50</v>
@@ -43204,7 +43196,7 @@
         <v>0</v>
       </c>
       <c r="AD728" t="n">
-        <v>381</v>
+        <v>514</v>
       </c>
     </row>
     <row r="729">
@@ -43229,7 +43221,7 @@
         <v>0</v>
       </c>
       <c r="N729" t="n">
-        <v>634</v>
+        <v>713</v>
       </c>
       <c r="O729" t="n">
         <v>50</v>
@@ -43253,7 +43245,7 @@
         <v>0</v>
       </c>
       <c r="AD729" t="n">
-        <v>381</v>
+        <v>384</v>
       </c>
     </row>
     <row r="730">
@@ -43343,7 +43335,7 @@
         <v>0</v>
       </c>
       <c r="V731" t="n">
-        <v>473</v>
+        <v>573</v>
       </c>
       <c r="AB731" t="n">
         <v>0</v>
@@ -43467,7 +43459,7 @@
         <v>0</v>
       </c>
       <c r="N734" t="n">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="O734" t="n">
         <v>50</v>
@@ -43488,7 +43480,7 @@
         <v>0</v>
       </c>
       <c r="AD734" t="n">
-        <v>381</v>
+        <v>484</v>
       </c>
     </row>
     <row r="735">
@@ -43536,7 +43528,7 @@
         <v>0</v>
       </c>
       <c r="AD735" t="n">
-        <v>381</v>
+        <v>489</v>
       </c>
     </row>
     <row r="736">
@@ -43626,7 +43618,7 @@
         <v>10173</v>
       </c>
       <c r="AD737" t="n">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="738">
@@ -43677,7 +43669,7 @@
         <v>5007</v>
       </c>
       <c r="AD738" t="n">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="739">
@@ -43782,7 +43774,7 @@
         <v>0</v>
       </c>
       <c r="AD740" t="n">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="741">
@@ -43839,7 +43831,7 @@
         <v>0</v>
       </c>
       <c r="AD741" t="n">
-        <v>381</v>
+        <v>500</v>
       </c>
     </row>
     <row r="742">
@@ -43890,7 +43882,7 @@
         <v>3672</v>
       </c>
       <c r="AD742" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="743">
@@ -43944,7 +43936,7 @@
         <v>0</v>
       </c>
       <c r="AD743" t="n">
-        <v>381</v>
+        <v>492</v>
       </c>
     </row>
     <row r="744">
@@ -43977,7 +43969,7 @@
         <v>0</v>
       </c>
       <c r="N744" t="n">
-        <v>634</v>
+        <v>677</v>
       </c>
       <c r="O744" t="n">
         <v>30</v>
@@ -44001,7 +43993,7 @@
         <v>6335</v>
       </c>
       <c r="AD744" t="n">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="745">
@@ -44053,7 +44045,7 @@
         <v>0</v>
       </c>
       <c r="AD745" t="n">
-        <v>381</v>
+        <v>522</v>
       </c>
     </row>
     <row r="746">
@@ -44078,7 +44070,7 @@
         <v>0</v>
       </c>
       <c r="N746" t="n">
-        <v>634</v>
+        <v>764</v>
       </c>
       <c r="O746" t="n">
         <v>30</v>
@@ -44105,7 +44097,7 @@
         <v>2957</v>
       </c>
       <c r="AD746" t="n">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="747">
@@ -44259,7 +44251,7 @@
         <v>9736</v>
       </c>
       <c r="AD749" t="n">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="750">
@@ -44292,7 +44284,7 @@
         <v>0</v>
       </c>
       <c r="N750" t="n">
-        <v>634</v>
+        <v>679</v>
       </c>
       <c r="O750" t="n">
         <v>30</v>
@@ -44319,7 +44311,7 @@
         <v>6989</v>
       </c>
       <c r="AD750" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="751">
@@ -45046,7 +45038,7 @@
         <v>0</v>
       </c>
       <c r="V766" t="n">
-        <v>473</v>
+        <v>583</v>
       </c>
       <c r="AB766" t="n">
         <v>0</v>
@@ -45185,7 +45177,7 @@
         <v>0</v>
       </c>
       <c r="V769" t="n">
-        <v>473</v>
+        <v>514</v>
       </c>
       <c r="AB769" t="n">
         <v>0</v>
@@ -45646,7 +45638,7 @@
         <v>0</v>
       </c>
       <c r="AD779" t="n">
-        <v>381</v>
+        <v>402</v>
       </c>
     </row>
     <row r="780">
@@ -45683,7 +45675,7 @@
         <v>0</v>
       </c>
       <c r="V780" t="n">
-        <v>473</v>
+        <v>599</v>
       </c>
       <c r="AB780" t="n">
         <v>0</v>
@@ -45860,7 +45852,7 @@
         <v>0</v>
       </c>
       <c r="N784" t="n">
-        <v>634</v>
+        <v>651</v>
       </c>
       <c r="O784" t="n">
         <v>30</v>
@@ -45998,7 +45990,7 @@
         <v>0</v>
       </c>
       <c r="N787" t="n">
-        <v>634</v>
+        <v>726</v>
       </c>
       <c r="O787" t="n">
         <v>30</v>
@@ -46067,7 +46059,7 @@
         <v>0</v>
       </c>
       <c r="V788" t="n">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AB788" t="n">
         <v>0</v>
@@ -46076,7 +46068,7 @@
         <v>0</v>
       </c>
       <c r="AD788" t="n">
-        <v>381</v>
+        <v>529</v>
       </c>
     </row>
     <row r="789">
@@ -46127,7 +46119,7 @@
         <v>1742</v>
       </c>
       <c r="AD789" t="n">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="790">
@@ -46170,7 +46162,7 @@
         <v>3128</v>
       </c>
       <c r="AD790" t="n">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="791">
@@ -46302,7 +46294,7 @@
         <v>0</v>
       </c>
       <c r="V793" t="n">
-        <v>473</v>
+        <v>591</v>
       </c>
       <c r="W793" t="n">
         <v>15</v>
@@ -46314,7 +46306,7 @@
         <v>4908</v>
       </c>
       <c r="AD793" t="n">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="794">
@@ -46354,7 +46346,7 @@
         <v>6269</v>
       </c>
       <c r="AD794" t="n">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="795">
@@ -46402,7 +46394,7 @@
         <v>6305</v>
       </c>
       <c r="AD795" t="n">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="796">
@@ -46435,7 +46427,7 @@
         <v>0</v>
       </c>
       <c r="N796" t="n">
-        <v>634</v>
+        <v>675</v>
       </c>
       <c r="O796" t="n">
         <v>30</v>
@@ -46486,7 +46478,7 @@
         <v>0</v>
       </c>
       <c r="N797" t="n">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="T797" t="n">
         <v>0</v>
@@ -46507,7 +46499,7 @@
         <v>7179</v>
       </c>
       <c r="AD797" t="n">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="798">
@@ -46537,7 +46529,7 @@
         <v>0</v>
       </c>
       <c r="N798" t="n">
-        <v>634</v>
+        <v>768</v>
       </c>
       <c r="T798" t="n">
         <v>0</v>
@@ -46561,7 +46553,7 @@
         <v>7430</v>
       </c>
       <c r="AD798" t="n">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="799">
@@ -46612,7 +46604,7 @@
         <v>3343</v>
       </c>
       <c r="AD799" t="n">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="800">
@@ -46697,7 +46689,7 @@
         <v>0</v>
       </c>
       <c r="V801" t="n">
-        <v>473</v>
+        <v>484</v>
       </c>
       <c r="W801" t="n">
         <v>15</v>
@@ -46709,7 +46701,7 @@
         <v>6126</v>
       </c>
       <c r="AD801" t="n">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="802">
@@ -46734,7 +46726,7 @@
         <v>0</v>
       </c>
       <c r="N802" t="n">
-        <v>634</v>
+        <v>861</v>
       </c>
       <c r="O802" t="n">
         <v>15</v>
@@ -46758,7 +46750,7 @@
         <v>3994</v>
       </c>
       <c r="AD802" t="n">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="803">
@@ -46835,7 +46827,7 @@
         <v>0</v>
       </c>
       <c r="V804" t="n">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="AB804" t="n">
         <v>0</v>
@@ -46844,7 +46836,7 @@
         <v>0</v>
       </c>
       <c r="AD804" t="n">
-        <v>381</v>
+        <v>454</v>
       </c>
     </row>
     <row r="805">
@@ -46874,7 +46866,7 @@
         <v>0</v>
       </c>
       <c r="N805" t="n">
-        <v>634</v>
+        <v>756</v>
       </c>
       <c r="O805" t="n">
         <v>15</v>
@@ -46895,7 +46887,7 @@
         <v>0</v>
       </c>
       <c r="AD805" t="n">
-        <v>381</v>
+        <v>466</v>
       </c>
     </row>
     <row r="806">
@@ -46935,7 +46927,7 @@
         <v>895</v>
       </c>
       <c r="AD806" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="807">
@@ -47110,7 +47102,7 @@
         <v>1509</v>
       </c>
       <c r="AD810" t="n">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="811">
@@ -47195,7 +47187,7 @@
         <v>1759</v>
       </c>
       <c r="AD812" t="n">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="813">
@@ -47240,7 +47232,7 @@
         <v>1966</v>
       </c>
       <c r="AD813" t="n">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="814">
@@ -47330,7 +47322,7 @@
         <v>2252</v>
       </c>
       <c r="AD815" t="n">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="816">
@@ -47375,7 +47367,7 @@
         <v>2622</v>
       </c>
       <c r="AD816" t="n">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="817">
@@ -47420,7 +47412,7 @@
         <v>2637</v>
       </c>
       <c r="AD817" t="n">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="818">
@@ -47445,7 +47437,7 @@
         <v>0</v>
       </c>
       <c r="N818" t="n">
-        <v>634</v>
+        <v>697</v>
       </c>
       <c r="T818" t="n">
         <v>0</v>
@@ -47463,7 +47455,7 @@
         <v>2652</v>
       </c>
       <c r="AD818" t="n">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="819">
@@ -47508,7 +47500,7 @@
         <v>2700</v>
       </c>
       <c r="AD819" t="n">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="820">
@@ -47584,7 +47576,7 @@
         <v>0</v>
       </c>
       <c r="N821" t="n">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="O821" t="n">
         <v>15</v>
@@ -47608,7 +47600,7 @@
         <v>0</v>
       </c>
       <c r="AD821" t="n">
-        <v>381</v>
+        <v>397</v>
       </c>
     </row>
     <row r="822">
@@ -47653,7 +47645,7 @@
         <v>2867</v>
       </c>
       <c r="AD822" t="n">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="823">
@@ -47690,7 +47682,7 @@
         <v>0</v>
       </c>
       <c r="V823" t="n">
-        <v>473</v>
+        <v>597</v>
       </c>
       <c r="AB823" t="n">
         <v>0</v>
@@ -47784,7 +47776,7 @@
         <v>0</v>
       </c>
       <c r="AD825" t="n">
-        <v>381</v>
+        <v>436</v>
       </c>
     </row>
     <row r="826">
@@ -47824,7 +47816,7 @@
         <v>3467</v>
       </c>
       <c r="AD826" t="n">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="827">
@@ -47872,7 +47864,7 @@
         <v>3641</v>
       </c>
       <c r="AD827" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="828">
@@ -47951,7 +47943,7 @@
         <v>0</v>
       </c>
       <c r="V829" t="n">
-        <v>473</v>
+        <v>523</v>
       </c>
       <c r="W829" t="n">
         <v>15</v>
@@ -47963,7 +47955,7 @@
         <v>3934</v>
       </c>
       <c r="AD829" t="n">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="830">
@@ -48008,7 +48000,7 @@
         <v>3969</v>
       </c>
       <c r="AD830" t="n">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="831">
@@ -48078,7 +48070,7 @@
         <v>0</v>
       </c>
       <c r="N832" t="n">
-        <v>634</v>
+        <v>791</v>
       </c>
       <c r="T832" t="n">
         <v>0</v>
@@ -48096,7 +48088,7 @@
         <v>4160</v>
       </c>
       <c r="AD832" t="n">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="833">
@@ -48181,7 +48173,7 @@
         <v>4425</v>
       </c>
       <c r="AD834" t="n">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="835">
@@ -48211,7 +48203,7 @@
         <v>0</v>
       </c>
       <c r="N835" t="n">
-        <v>634</v>
+        <v>765</v>
       </c>
       <c r="T835" t="n">
         <v>0</v>
@@ -48229,7 +48221,7 @@
         <v>4459</v>
       </c>
       <c r="AD835" t="n">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="836">
@@ -48274,7 +48266,7 @@
         <v>4464</v>
       </c>
       <c r="AD836" t="n">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="837">
@@ -48359,7 +48351,7 @@
         <v>4888</v>
       </c>
       <c r="AD838" t="n">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="839">
@@ -48449,7 +48441,7 @@
         <v>0</v>
       </c>
       <c r="V840" t="n">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="AB840" t="n">
         <v>0</v>
@@ -48498,7 +48490,7 @@
         <v>5397</v>
       </c>
       <c r="AD841" t="n">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="842">
@@ -48543,7 +48535,7 @@
         <v>5695</v>
       </c>
       <c r="AD842" t="n">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="843">
@@ -48588,7 +48580,7 @@
         <v>5779</v>
       </c>
       <c r="AD843" t="n">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="844">
@@ -48633,7 +48625,7 @@
         <v>5930</v>
       </c>
       <c r="AD844" t="n">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="845">
@@ -48681,7 +48673,7 @@
         <v>0</v>
       </c>
       <c r="AD845" t="n">
-        <v>381</v>
+        <v>457</v>
       </c>
     </row>
     <row r="846">
@@ -48771,7 +48763,7 @@
         <v>6304</v>
       </c>
       <c r="AD847" t="n">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="848">
@@ -48802,7 +48794,7 @@
         <v>0</v>
       </c>
       <c r="V848" t="n">
-        <v>473</v>
+        <v>522</v>
       </c>
       <c r="W848" t="n">
         <v>15</v>
@@ -48814,7 +48806,7 @@
         <v>7119</v>
       </c>
       <c r="AD848" t="n">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="849">
@@ -48896,7 +48888,7 @@
         <v>0</v>
       </c>
       <c r="V850" t="n">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="Y850" t="n">
         <v>15</v>
@@ -48908,7 +48900,7 @@
         <v>7539</v>
       </c>
       <c r="AD850" t="n">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
     <row r="851">
@@ -48953,7 +48945,7 @@
         <v>7871</v>
       </c>
       <c r="AD851" t="n">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="852">
@@ -48998,7 +48990,7 @@
         <v>8183</v>
       </c>
       <c r="AD852" t="n">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="853">
@@ -49046,7 +49038,7 @@
         <v>8198</v>
       </c>
       <c r="AD853" t="n">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="854">
@@ -49077,7 +49069,7 @@
         <v>0</v>
       </c>
       <c r="N854" t="n">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="T854" t="n">
         <v>0</v>
@@ -49095,7 +49087,7 @@
         <v>8680</v>
       </c>
       <c r="AD854" t="n">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="855">
@@ -49135,7 +49127,7 @@
         <v>8772</v>
       </c>
       <c r="AD855" t="n">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="856">
@@ -49175,7 +49167,7 @@
         <v>8956</v>
       </c>
       <c r="AD856" t="n">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="857">
@@ -49200,7 +49192,7 @@
         <v>0</v>
       </c>
       <c r="N857" t="n">
-        <v>634</v>
+        <v>818</v>
       </c>
       <c r="T857" t="n">
         <v>0</v>
@@ -49218,7 +49210,7 @@
         <v>8985</v>
       </c>
       <c r="AD857" t="n">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="858">
@@ -49263,7 +49255,7 @@
         <v>9088</v>
       </c>
       <c r="AD858" t="n">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="859">
@@ -49353,7 +49345,7 @@
         <v>9447</v>
       </c>
       <c r="AD860" t="n">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="861">
@@ -49438,7 +49430,7 @@
         <v>0</v>
       </c>
       <c r="V862" t="n">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AB862" t="n">
         <v>0</v>
@@ -49477,7 +49469,7 @@
         <v>0</v>
       </c>
       <c r="N863" t="n">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="T863" t="n">
         <v>0</v>
@@ -49522,7 +49514,7 @@
         <v>0</v>
       </c>
       <c r="N864" t="n">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="T864" t="n">
         <v>0</v>
@@ -49567,7 +49559,7 @@
         <v>0</v>
       </c>
       <c r="N865" t="n">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="T865" t="n">
         <v>0</v>
@@ -49615,7 +49607,7 @@
         <v>0</v>
       </c>
       <c r="N866" t="n">
-        <v>634</v>
+        <v>640</v>
       </c>
       <c r="T866" t="n">
         <v>0</v>
@@ -49655,7 +49647,7 @@
         <v>0</v>
       </c>
       <c r="N867" t="n">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="T867" t="n">
         <v>0</v>
@@ -49700,7 +49692,7 @@
         <v>0</v>
       </c>
       <c r="N868" t="n">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="T868" t="n">
         <v>0</v>
@@ -49745,7 +49737,7 @@
         <v>0</v>
       </c>
       <c r="N869" t="n">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="T869" t="n">
         <v>0</v>
@@ -49785,7 +49777,7 @@
         <v>0</v>
       </c>
       <c r="N870" t="n">
-        <v>634</v>
+        <v>645</v>
       </c>
       <c r="T870" t="n">
         <v>0</v>
@@ -49825,7 +49817,7 @@
         <v>0</v>
       </c>
       <c r="N871" t="n">
-        <v>634</v>
+        <v>647</v>
       </c>
       <c r="T871" t="n">
         <v>0</v>
@@ -49865,7 +49857,7 @@
         <v>0</v>
       </c>
       <c r="N872" t="n">
-        <v>634</v>
+        <v>648</v>
       </c>
       <c r="T872" t="n">
         <v>0</v>
@@ -49913,7 +49905,7 @@
         <v>0</v>
       </c>
       <c r="N873" t="n">
-        <v>634</v>
+        <v>649</v>
       </c>
       <c r="T873" t="n">
         <v>0</v>
@@ -49958,7 +49950,7 @@
         <v>0</v>
       </c>
       <c r="N874" t="n">
-        <v>634</v>
+        <v>650</v>
       </c>
       <c r="T874" t="n">
         <v>0</v>
@@ -49998,7 +49990,7 @@
         <v>0</v>
       </c>
       <c r="N875" t="n">
-        <v>634</v>
+        <v>653</v>
       </c>
       <c r="Q875" t="n">
         <v>0</v>
@@ -50010,7 +50002,7 @@
         <v>0</v>
       </c>
       <c r="V875" t="n">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="AB875" t="n">
         <v>0</v>
@@ -50049,7 +50041,7 @@
         <v>0</v>
       </c>
       <c r="N876" t="n">
-        <v>634</v>
+        <v>655</v>
       </c>
       <c r="O876" t="n">
         <v>0</v>
@@ -50064,7 +50056,7 @@
         <v>0</v>
       </c>
       <c r="V876" t="n">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="AB876" t="n">
         <v>0</v>
@@ -50103,7 +50095,7 @@
         <v>0</v>
       </c>
       <c r="N877" t="n">
-        <v>634</v>
+        <v>657</v>
       </c>
       <c r="T877" t="n">
         <v>0</v>
@@ -50148,7 +50140,7 @@
         <v>0</v>
       </c>
       <c r="N878" t="n">
-        <v>634</v>
+        <v>659</v>
       </c>
       <c r="T878" t="n">
         <v>0</v>
@@ -50157,16 +50149,16 @@
         <v>0</v>
       </c>
       <c r="V878" t="n">
+        <v>549</v>
+      </c>
+      <c r="AB878" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC878" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD878" t="n">
         <v>473</v>
-      </c>
-      <c r="AB878" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC878" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD878" t="n">
-        <v>381</v>
       </c>
     </row>
     <row r="879">
@@ -50199,7 +50191,7 @@
         <v>0</v>
       </c>
       <c r="N879" t="n">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="T879" t="n">
         <v>0</v>
@@ -50244,7 +50236,7 @@
         <v>0</v>
       </c>
       <c r="N880" t="n">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="T880" t="n">
         <v>0</v>
@@ -50289,7 +50281,7 @@
         <v>0</v>
       </c>
       <c r="N881" t="n">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="O881" t="n">
         <v>0</v>
@@ -50301,7 +50293,7 @@
         <v>0</v>
       </c>
       <c r="V881" t="n">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="AB881" t="n">
         <v>0</v>
@@ -50340,7 +50332,7 @@
         <v>0</v>
       </c>
       <c r="N882" t="n">
-        <v>634</v>
+        <v>664</v>
       </c>
       <c r="T882" t="n">
         <v>0</v>
@@ -50349,7 +50341,7 @@
         <v>0</v>
       </c>
       <c r="V882" t="n">
-        <v>473</v>
+        <v>585</v>
       </c>
       <c r="AB882" t="n">
         <v>0</v>
@@ -50388,7 +50380,7 @@
         <v>0</v>
       </c>
       <c r="N883" t="n">
-        <v>634</v>
+        <v>665</v>
       </c>
       <c r="T883" t="n">
         <v>0</v>
@@ -50433,7 +50425,7 @@
         <v>0</v>
       </c>
       <c r="N884" t="n">
-        <v>634</v>
+        <v>666</v>
       </c>
       <c r="T884" t="n">
         <v>0</v>
@@ -50473,7 +50465,7 @@
         <v>0</v>
       </c>
       <c r="N885" t="n">
-        <v>634</v>
+        <v>667</v>
       </c>
       <c r="T885" t="n">
         <v>0</v>
@@ -50518,7 +50510,7 @@
         <v>0</v>
       </c>
       <c r="N886" t="n">
-        <v>634</v>
+        <v>668</v>
       </c>
       <c r="T886" t="n">
         <v>0</v>
@@ -50558,7 +50550,7 @@
         <v>0</v>
       </c>
       <c r="N887" t="n">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="T887" t="n">
         <v>0</v>
@@ -50603,7 +50595,7 @@
         <v>0</v>
       </c>
       <c r="N888" t="n">
-        <v>634</v>
+        <v>670</v>
       </c>
       <c r="T888" t="n">
         <v>0</v>
@@ -50643,7 +50635,7 @@
         <v>0</v>
       </c>
       <c r="N889" t="n">
-        <v>634</v>
+        <v>671</v>
       </c>
       <c r="O889" t="n">
         <v>0</v>
@@ -50655,7 +50647,7 @@
         <v>0</v>
       </c>
       <c r="V889" t="n">
-        <v>473</v>
+        <v>490</v>
       </c>
       <c r="AB889" t="n">
         <v>0</v>
@@ -50664,7 +50656,7 @@
         <v>0</v>
       </c>
       <c r="AD889" t="n">
-        <v>381</v>
+        <v>464</v>
       </c>
     </row>
     <row r="890">
@@ -50697,7 +50689,7 @@
         <v>0</v>
       </c>
       <c r="N890" t="n">
-        <v>634</v>
+        <v>674</v>
       </c>
       <c r="T890" t="n">
         <v>0</v>
@@ -50742,7 +50734,7 @@
         <v>0</v>
       </c>
       <c r="N891" t="n">
-        <v>634</v>
+        <v>680</v>
       </c>
       <c r="T891" t="n">
         <v>0</v>
@@ -50779,7 +50771,7 @@
         <v>0</v>
       </c>
       <c r="N892" t="n">
-        <v>634</v>
+        <v>681</v>
       </c>
       <c r="T892" t="n">
         <v>0</v>
@@ -50821,7 +50813,7 @@
         <v>0</v>
       </c>
       <c r="N893" t="n">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="T893" t="n">
         <v>0</v>
@@ -50858,7 +50850,7 @@
         <v>0</v>
       </c>
       <c r="N894" t="n">
-        <v>634</v>
+        <v>686</v>
       </c>
       <c r="T894" t="n">
         <v>0</v>
@@ -50895,7 +50887,7 @@
         <v>0</v>
       </c>
       <c r="N895" t="n">
-        <v>634</v>
+        <v>687</v>
       </c>
       <c r="T895" t="n">
         <v>0</v>
@@ -50932,7 +50924,7 @@
         <v>0</v>
       </c>
       <c r="N896" t="n">
-        <v>634</v>
+        <v>688</v>
       </c>
       <c r="T896" t="n">
         <v>0</v>
@@ -50941,7 +50933,7 @@
         <v>0</v>
       </c>
       <c r="V896" t="n">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="AB896" t="n">
         <v>0</v>
@@ -50972,7 +50964,7 @@
         <v>0</v>
       </c>
       <c r="N897" t="n">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="T897" t="n">
         <v>0</v>
@@ -51014,7 +51006,7 @@
         <v>0</v>
       </c>
       <c r="N898" t="n">
-        <v>634</v>
+        <v>692</v>
       </c>
       <c r="T898" t="n">
         <v>0</v>
@@ -51056,7 +51048,7 @@
         <v>0</v>
       </c>
       <c r="N899" t="n">
-        <v>634</v>
+        <v>693</v>
       </c>
       <c r="T899" t="n">
         <v>0</v>
@@ -51093,7 +51085,7 @@
         <v>0</v>
       </c>
       <c r="N900" t="n">
-        <v>634</v>
+        <v>694</v>
       </c>
       <c r="T900" t="n">
         <v>0</v>
@@ -51135,7 +51127,7 @@
         <v>0</v>
       </c>
       <c r="N901" t="n">
-        <v>634</v>
+        <v>695</v>
       </c>
       <c r="T901" t="n">
         <v>0</v>
@@ -51172,7 +51164,7 @@
         <v>0</v>
       </c>
       <c r="N902" t="n">
-        <v>634</v>
+        <v>696</v>
       </c>
       <c r="T902" t="n">
         <v>0</v>
@@ -51181,7 +51173,7 @@
         <v>0</v>
       </c>
       <c r="V902" t="n">
-        <v>473</v>
+        <v>510</v>
       </c>
       <c r="AB902" t="n">
         <v>0</v>
@@ -51212,7 +51204,7 @@
         <v>0</v>
       </c>
       <c r="N903" t="n">
-        <v>634</v>
+        <v>699</v>
       </c>
       <c r="T903" t="n">
         <v>0</v>
@@ -51221,7 +51213,7 @@
         <v>0</v>
       </c>
       <c r="V903" t="n">
-        <v>473</v>
+        <v>515</v>
       </c>
       <c r="AB903" t="n">
         <v>0</v>
@@ -51252,7 +51244,7 @@
         <v>0</v>
       </c>
       <c r="N904" t="n">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="T904" t="n">
         <v>0</v>
@@ -51294,7 +51286,7 @@
         <v>0</v>
       </c>
       <c r="N905" t="n">
-        <v>634</v>
+        <v>701</v>
       </c>
       <c r="T905" t="n">
         <v>0</v>
@@ -51336,7 +51328,7 @@
         <v>0</v>
       </c>
       <c r="N906" t="n">
-        <v>634</v>
+        <v>702</v>
       </c>
       <c r="T906" t="n">
         <v>0</v>
@@ -51373,7 +51365,7 @@
         <v>0</v>
       </c>
       <c r="N907" t="n">
-        <v>634</v>
+        <v>703</v>
       </c>
       <c r="T907" t="n">
         <v>0</v>
@@ -51415,7 +51407,7 @@
         <v>0</v>
       </c>
       <c r="N908" t="n">
-        <v>634</v>
+        <v>704</v>
       </c>
       <c r="T908" t="n">
         <v>0</v>
@@ -51457,7 +51449,7 @@
         <v>0</v>
       </c>
       <c r="N909" t="n">
-        <v>634</v>
+        <v>705</v>
       </c>
       <c r="T909" t="n">
         <v>0</v>
@@ -51494,7 +51486,7 @@
         <v>0</v>
       </c>
       <c r="N910" t="n">
-        <v>634</v>
+        <v>708</v>
       </c>
       <c r="T910" t="n">
         <v>0</v>
@@ -51531,7 +51523,7 @@
         <v>0</v>
       </c>
       <c r="N911" t="n">
-        <v>634</v>
+        <v>710</v>
       </c>
       <c r="T911" t="n">
         <v>0</v>
@@ -51568,7 +51560,7 @@
         <v>0</v>
       </c>
       <c r="N912" t="n">
-        <v>634</v>
+        <v>711</v>
       </c>
       <c r="T912" t="n">
         <v>0</v>
@@ -51605,7 +51597,7 @@
         <v>0</v>
       </c>
       <c r="N913" t="n">
-        <v>634</v>
+        <v>712</v>
       </c>
       <c r="T913" t="n">
         <v>0</v>
@@ -51642,7 +51634,7 @@
         <v>0</v>
       </c>
       <c r="N914" t="n">
-        <v>634</v>
+        <v>714</v>
       </c>
       <c r="T914" t="n">
         <v>0</v>
@@ -51657,7 +51649,7 @@
         <v>0</v>
       </c>
       <c r="AD914" t="n">
-        <v>381</v>
+        <v>443</v>
       </c>
     </row>
     <row r="915">
@@ -51687,7 +51679,7 @@
         <v>0</v>
       </c>
       <c r="N915" t="n">
-        <v>634</v>
+        <v>715</v>
       </c>
       <c r="T915" t="n">
         <v>0</v>
@@ -51724,7 +51716,7 @@
         <v>0</v>
       </c>
       <c r="N916" t="n">
-        <v>634</v>
+        <v>716</v>
       </c>
       <c r="T916" t="n">
         <v>0</v>
@@ -51766,7 +51758,7 @@
         <v>0</v>
       </c>
       <c r="N917" t="n">
-        <v>634</v>
+        <v>717</v>
       </c>
       <c r="T917" t="n">
         <v>0</v>
@@ -51775,7 +51767,7 @@
         <v>0</v>
       </c>
       <c r="V917" t="n">
-        <v>473</v>
+        <v>532</v>
       </c>
       <c r="AB917" t="n">
         <v>0</v>
@@ -51806,7 +51798,7 @@
         <v>0</v>
       </c>
       <c r="N918" t="n">
-        <v>634</v>
+        <v>718</v>
       </c>
       <c r="T918" t="n">
         <v>0</v>
@@ -51815,7 +51807,7 @@
         <v>0</v>
       </c>
       <c r="V918" t="n">
-        <v>473</v>
+        <v>533</v>
       </c>
       <c r="AB918" t="n">
         <v>0</v>
@@ -51851,7 +51843,7 @@
         <v>0</v>
       </c>
       <c r="N919" t="n">
-        <v>634</v>
+        <v>720</v>
       </c>
       <c r="T919" t="n">
         <v>0</v>
@@ -51888,7 +51880,7 @@
         <v>0</v>
       </c>
       <c r="N920" t="n">
-        <v>634</v>
+        <v>722</v>
       </c>
       <c r="T920" t="n">
         <v>0</v>
@@ -51930,7 +51922,7 @@
         <v>0</v>
       </c>
       <c r="N921" t="n">
-        <v>634</v>
+        <v>723</v>
       </c>
       <c r="T921" t="n">
         <v>0</v>
@@ -51972,7 +51964,7 @@
         <v>0</v>
       </c>
       <c r="N922" t="n">
-        <v>634</v>
+        <v>724</v>
       </c>
       <c r="T922" t="n">
         <v>0</v>
@@ -51990,7 +51982,7 @@
         <v>0</v>
       </c>
       <c r="AD922" t="n">
-        <v>381</v>
+        <v>403</v>
       </c>
     </row>
     <row r="923">
@@ -52015,7 +52007,7 @@
         <v>0</v>
       </c>
       <c r="N923" t="n">
-        <v>634</v>
+        <v>725</v>
       </c>
       <c r="T923" t="n">
         <v>0</v>
@@ -52057,7 +52049,7 @@
         <v>0</v>
       </c>
       <c r="N924" t="n">
-        <v>634</v>
+        <v>727</v>
       </c>
       <c r="T924" t="n">
         <v>0</v>
@@ -52094,7 +52086,7 @@
         <v>0</v>
       </c>
       <c r="N925" t="n">
-        <v>634</v>
+        <v>729</v>
       </c>
       <c r="T925" t="n">
         <v>0</v>
@@ -52131,7 +52123,7 @@
         <v>0</v>
       </c>
       <c r="N926" t="n">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="T926" t="n">
         <v>0</v>
@@ -52173,7 +52165,7 @@
         <v>0</v>
       </c>
       <c r="N927" t="n">
-        <v>634</v>
+        <v>731</v>
       </c>
       <c r="T927" t="n">
         <v>0</v>
@@ -52215,7 +52207,7 @@
         <v>0</v>
       </c>
       <c r="N928" t="n">
-        <v>634</v>
+        <v>732</v>
       </c>
       <c r="T928" t="n">
         <v>0</v>
@@ -52257,7 +52249,7 @@
         <v>0</v>
       </c>
       <c r="N929" t="n">
-        <v>634</v>
+        <v>733</v>
       </c>
       <c r="T929" t="n">
         <v>0</v>
@@ -52299,7 +52291,7 @@
         <v>0</v>
       </c>
       <c r="N930" t="n">
-        <v>634</v>
+        <v>734</v>
       </c>
       <c r="T930" t="n">
         <v>0</v>
@@ -52341,7 +52333,7 @@
         <v>0</v>
       </c>
       <c r="N931" t="n">
-        <v>634</v>
+        <v>735</v>
       </c>
       <c r="T931" t="n">
         <v>0</v>
@@ -52383,7 +52375,7 @@
         <v>0</v>
       </c>
       <c r="N932" t="n">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="T932" t="n">
         <v>0</v>
@@ -52425,7 +52417,7 @@
         <v>0</v>
       </c>
       <c r="N933" t="n">
-        <v>634</v>
+        <v>737</v>
       </c>
       <c r="T933" t="n">
         <v>0</v>
@@ -52462,7 +52454,7 @@
         <v>0</v>
       </c>
       <c r="N934" t="n">
-        <v>634</v>
+        <v>738</v>
       </c>
       <c r="T934" t="n">
         <v>0</v>
@@ -52504,7 +52496,7 @@
         <v>0</v>
       </c>
       <c r="N935" t="n">
-        <v>634</v>
+        <v>739</v>
       </c>
       <c r="T935" t="n">
         <v>0</v>
@@ -52546,7 +52538,7 @@
         <v>0</v>
       </c>
       <c r="N936" t="n">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="T936" t="n">
         <v>0</v>
@@ -52588,7 +52580,7 @@
         <v>0</v>
       </c>
       <c r="N937" t="n">
-        <v>634</v>
+        <v>741</v>
       </c>
       <c r="T937" t="n">
         <v>0</v>
@@ -52630,7 +52622,7 @@
         <v>0</v>
       </c>
       <c r="N938" t="n">
-        <v>634</v>
+        <v>743</v>
       </c>
       <c r="T938" t="n">
         <v>0</v>
@@ -52672,7 +52664,7 @@
         <v>0</v>
       </c>
       <c r="N939" t="n">
-        <v>634</v>
+        <v>744</v>
       </c>
       <c r="T939" t="n">
         <v>0</v>
@@ -52714,7 +52706,7 @@
         <v>0</v>
       </c>
       <c r="N940" t="n">
-        <v>634</v>
+        <v>745</v>
       </c>
       <c r="T940" t="n">
         <v>0</v>
@@ -52756,7 +52748,7 @@
         <v>0</v>
       </c>
       <c r="N941" t="n">
-        <v>634</v>
+        <v>746</v>
       </c>
       <c r="T941" t="n">
         <v>0</v>
@@ -52798,7 +52790,7 @@
         <v>0</v>
       </c>
       <c r="N942" t="n">
-        <v>634</v>
+        <v>747</v>
       </c>
       <c r="T942" t="n">
         <v>0</v>
@@ -52840,7 +52832,7 @@
         <v>0</v>
       </c>
       <c r="N943" t="n">
-        <v>634</v>
+        <v>748</v>
       </c>
       <c r="T943" t="n">
         <v>0</v>
@@ -52877,7 +52869,7 @@
         <v>0</v>
       </c>
       <c r="N944" t="n">
-        <v>634</v>
+        <v>749</v>
       </c>
       <c r="T944" t="n">
         <v>0</v>
@@ -52919,7 +52911,7 @@
         <v>0</v>
       </c>
       <c r="N945" t="n">
-        <v>634</v>
+        <v>751</v>
       </c>
       <c r="T945" t="n">
         <v>0</v>
@@ -52956,7 +52948,7 @@
         <v>0</v>
       </c>
       <c r="N946" t="n">
-        <v>634</v>
+        <v>753</v>
       </c>
       <c r="T946" t="n">
         <v>0</v>
@@ -52998,7 +52990,7 @@
         <v>0</v>
       </c>
       <c r="N947" t="n">
-        <v>634</v>
+        <v>754</v>
       </c>
       <c r="T947" t="n">
         <v>0</v>
@@ -53040,7 +53032,7 @@
         <v>0</v>
       </c>
       <c r="N948" t="n">
-        <v>634</v>
+        <v>755</v>
       </c>
       <c r="T948" t="n">
         <v>0</v>
@@ -53049,7 +53041,7 @@
         <v>0</v>
       </c>
       <c r="V948" t="n">
-        <v>473</v>
+        <v>545</v>
       </c>
       <c r="W948" t="n">
         <v>0</v>
@@ -53061,7 +53053,7 @@
         <v>0</v>
       </c>
       <c r="AD948" t="n">
-        <v>381</v>
+        <v>394</v>
       </c>
     </row>
     <row r="949">
@@ -53091,7 +53083,7 @@
         <v>0</v>
       </c>
       <c r="N949" t="n">
-        <v>634</v>
+        <v>757</v>
       </c>
       <c r="T949" t="n">
         <v>0</v>
@@ -53133,7 +53125,7 @@
         <v>0</v>
       </c>
       <c r="N950" t="n">
-        <v>634</v>
+        <v>758</v>
       </c>
       <c r="T950" t="n">
         <v>0</v>
@@ -53175,7 +53167,7 @@
         <v>0</v>
       </c>
       <c r="N951" t="n">
-        <v>634</v>
+        <v>759</v>
       </c>
       <c r="T951" t="n">
         <v>0</v>
@@ -53217,7 +53209,7 @@
         <v>0</v>
       </c>
       <c r="N952" t="n">
-        <v>634</v>
+        <v>760</v>
       </c>
       <c r="T952" t="n">
         <v>0</v>
@@ -53259,7 +53251,7 @@
         <v>0</v>
       </c>
       <c r="N953" t="n">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="T953" t="n">
         <v>0</v>
@@ -53296,7 +53288,7 @@
         <v>0</v>
       </c>
       <c r="N954" t="n">
-        <v>634</v>
+        <v>762</v>
       </c>
       <c r="T954" t="n">
         <v>0</v>
@@ -53338,7 +53330,7 @@
         <v>0</v>
       </c>
       <c r="N955" t="n">
-        <v>634</v>
+        <v>763</v>
       </c>
       <c r="T955" t="n">
         <v>0</v>
@@ -53380,7 +53372,7 @@
         <v>0</v>
       </c>
       <c r="N956" t="n">
-        <v>634</v>
+        <v>766</v>
       </c>
       <c r="T956" t="n">
         <v>0</v>
@@ -53395,7 +53387,7 @@
         <v>0</v>
       </c>
       <c r="AD956" t="n">
-        <v>381</v>
+        <v>477</v>
       </c>
     </row>
     <row r="957">
@@ -53425,7 +53417,7 @@
         <v>0</v>
       </c>
       <c r="N957" t="n">
-        <v>634</v>
+        <v>769</v>
       </c>
       <c r="T957" t="n">
         <v>0</v>
@@ -53440,7 +53432,7 @@
         <v>0</v>
       </c>
       <c r="AD957" t="n">
-        <v>381</v>
+        <v>479</v>
       </c>
     </row>
     <row r="958">
@@ -53470,7 +53462,7 @@
         <v>0</v>
       </c>
       <c r="N958" t="n">
-        <v>634</v>
+        <v>770</v>
       </c>
       <c r="T958" t="n">
         <v>0</v>
@@ -53485,7 +53477,7 @@
         <v>0</v>
       </c>
       <c r="AD958" t="n">
-        <v>381</v>
+        <v>481</v>
       </c>
     </row>
     <row r="959">
@@ -53510,7 +53502,7 @@
         <v>0</v>
       </c>
       <c r="N959" t="n">
-        <v>634</v>
+        <v>771</v>
       </c>
       <c r="T959" t="n">
         <v>0</v>
@@ -53547,7 +53539,7 @@
         <v>0</v>
       </c>
       <c r="N960" t="n">
-        <v>634</v>
+        <v>772</v>
       </c>
       <c r="T960" t="n">
         <v>0</v>
@@ -53556,7 +53548,7 @@
         <v>0</v>
       </c>
       <c r="V960" t="n">
-        <v>473</v>
+        <v>552</v>
       </c>
       <c r="AB960" t="n">
         <v>0</v>
@@ -53565,7 +53557,7 @@
         <v>0</v>
       </c>
       <c r="AD960" t="n">
-        <v>381</v>
+        <v>483</v>
       </c>
     </row>
     <row r="961">
@@ -53590,7 +53582,7 @@
         <v>0</v>
       </c>
       <c r="N961" t="n">
-        <v>634</v>
+        <v>773</v>
       </c>
       <c r="T961" t="n">
         <v>0</v>
@@ -53632,7 +53624,7 @@
         <v>0</v>
       </c>
       <c r="N962" t="n">
-        <v>634</v>
+        <v>774</v>
       </c>
       <c r="T962" t="n">
         <v>0</v>
@@ -53674,7 +53666,7 @@
         <v>0</v>
       </c>
       <c r="N963" t="n">
-        <v>634</v>
+        <v>775</v>
       </c>
       <c r="T963" t="n">
         <v>0</v>
@@ -53711,7 +53703,7 @@
         <v>0</v>
       </c>
       <c r="N964" t="n">
-        <v>634</v>
+        <v>776</v>
       </c>
       <c r="T964" t="n">
         <v>0</v>
@@ -53753,7 +53745,7 @@
         <v>0</v>
       </c>
       <c r="N965" t="n">
-        <v>634</v>
+        <v>777</v>
       </c>
       <c r="T965" t="n">
         <v>0</v>
@@ -53790,7 +53782,7 @@
         <v>0</v>
       </c>
       <c r="N966" t="n">
-        <v>634</v>
+        <v>778</v>
       </c>
       <c r="T966" t="n">
         <v>0</v>
@@ -53799,7 +53791,7 @@
         <v>0</v>
       </c>
       <c r="V966" t="n">
-        <v>473</v>
+        <v>554</v>
       </c>
       <c r="AB966" t="n">
         <v>0</v>
@@ -53808,7 +53800,7 @@
         <v>0</v>
       </c>
       <c r="AD966" t="n">
-        <v>381</v>
+        <v>488</v>
       </c>
     </row>
     <row r="967">
@@ -53838,7 +53830,7 @@
         <v>0</v>
       </c>
       <c r="N967" t="n">
-        <v>634</v>
+        <v>779</v>
       </c>
       <c r="T967" t="n">
         <v>0</v>
@@ -53875,7 +53867,7 @@
         <v>0</v>
       </c>
       <c r="N968" t="n">
-        <v>634</v>
+        <v>780</v>
       </c>
       <c r="T968" t="n">
         <v>0</v>
@@ -53912,7 +53904,7 @@
         <v>0</v>
       </c>
       <c r="N969" t="n">
-        <v>634</v>
+        <v>781</v>
       </c>
       <c r="T969" t="n">
         <v>0</v>
@@ -53954,7 +53946,7 @@
         <v>0</v>
       </c>
       <c r="N970" t="n">
-        <v>634</v>
+        <v>782</v>
       </c>
       <c r="T970" t="n">
         <v>0</v>
@@ -53996,7 +53988,7 @@
         <v>0</v>
       </c>
       <c r="N971" t="n">
-        <v>634</v>
+        <v>783</v>
       </c>
       <c r="T971" t="n">
         <v>0</v>
@@ -54038,7 +54030,7 @@
         <v>0</v>
       </c>
       <c r="N972" t="n">
-        <v>634</v>
+        <v>784</v>
       </c>
       <c r="T972" t="n">
         <v>0</v>
@@ -54080,7 +54072,7 @@
         <v>0</v>
       </c>
       <c r="N973" t="n">
-        <v>634</v>
+        <v>785</v>
       </c>
       <c r="T973" t="n">
         <v>0</v>
@@ -54122,7 +54114,7 @@
         <v>0</v>
       </c>
       <c r="N974" t="n">
-        <v>634</v>
+        <v>786</v>
       </c>
       <c r="T974" t="n">
         <v>0</v>
@@ -54137,7 +54129,7 @@
         <v>0</v>
       </c>
       <c r="AD974" t="n">
-        <v>381</v>
+        <v>495</v>
       </c>
     </row>
     <row r="975">
@@ -54167,7 +54159,7 @@
         <v>0</v>
       </c>
       <c r="N975" t="n">
-        <v>634</v>
+        <v>787</v>
       </c>
       <c r="T975" t="n">
         <v>0</v>
@@ -54176,7 +54168,7 @@
         <v>0</v>
       </c>
       <c r="V975" t="n">
-        <v>473</v>
+        <v>561</v>
       </c>
       <c r="AB975" t="n">
         <v>0</v>
@@ -54212,7 +54204,7 @@
         <v>0</v>
       </c>
       <c r="N976" t="n">
-        <v>634</v>
+        <v>788</v>
       </c>
       <c r="T976" t="n">
         <v>0</v>
@@ -54254,7 +54246,7 @@
         <v>0</v>
       </c>
       <c r="N977" t="n">
-        <v>634</v>
+        <v>789</v>
       </c>
       <c r="T977" t="n">
         <v>0</v>
@@ -54263,7 +54255,7 @@
         <v>0</v>
       </c>
       <c r="V977" t="n">
-        <v>473</v>
+        <v>564</v>
       </c>
       <c r="AB977" t="n">
         <v>0</v>
@@ -54299,7 +54291,7 @@
         <v>0</v>
       </c>
       <c r="N978" t="n">
-        <v>634</v>
+        <v>790</v>
       </c>
       <c r="T978" t="n">
         <v>0</v>
@@ -54341,7 +54333,7 @@
         <v>0</v>
       </c>
       <c r="N979" t="n">
-        <v>634</v>
+        <v>792</v>
       </c>
       <c r="T979" t="n">
         <v>0</v>
@@ -54383,7 +54375,7 @@
         <v>0</v>
       </c>
       <c r="N980" t="n">
-        <v>634</v>
+        <v>794</v>
       </c>
       <c r="T980" t="n">
         <v>0</v>
@@ -54425,7 +54417,7 @@
         <v>0</v>
       </c>
       <c r="N981" t="n">
-        <v>634</v>
+        <v>796</v>
       </c>
       <c r="T981" t="n">
         <v>0</v>
@@ -54467,7 +54459,7 @@
         <v>0</v>
       </c>
       <c r="N982" t="n">
-        <v>634</v>
+        <v>797</v>
       </c>
       <c r="T982" t="n">
         <v>0</v>
@@ -54476,7 +54468,7 @@
         <v>0</v>
       </c>
       <c r="V982" t="n">
-        <v>473</v>
+        <v>571</v>
       </c>
       <c r="AB982" t="n">
         <v>0</v>
@@ -54507,7 +54499,7 @@
         <v>0</v>
       </c>
       <c r="N983" t="n">
-        <v>634</v>
+        <v>798</v>
       </c>
       <c r="T983" t="n">
         <v>0</v>
@@ -54549,7 +54541,7 @@
         <v>0</v>
       </c>
       <c r="N984" t="n">
-        <v>634</v>
+        <v>799</v>
       </c>
       <c r="T984" t="n">
         <v>0</v>
@@ -54591,7 +54583,7 @@
         <v>0</v>
       </c>
       <c r="N985" t="n">
-        <v>634</v>
+        <v>801</v>
       </c>
       <c r="T985" t="n">
         <v>0</v>
@@ -54628,7 +54620,7 @@
         <v>0</v>
       </c>
       <c r="N986" t="n">
-        <v>634</v>
+        <v>802</v>
       </c>
       <c r="T986" t="n">
         <v>0</v>
@@ -54665,7 +54657,7 @@
         <v>0</v>
       </c>
       <c r="N987" t="n">
-        <v>634</v>
+        <v>803</v>
       </c>
       <c r="T987" t="n">
         <v>0</v>
@@ -54707,7 +54699,7 @@
         <v>0</v>
       </c>
       <c r="N988" t="n">
-        <v>634</v>
+        <v>805</v>
       </c>
       <c r="T988" t="n">
         <v>0</v>
@@ -54749,7 +54741,7 @@
         <v>0</v>
       </c>
       <c r="N989" t="n">
-        <v>634</v>
+        <v>806</v>
       </c>
       <c r="T989" t="n">
         <v>0</v>
@@ -54758,7 +54750,7 @@
         <v>0</v>
       </c>
       <c r="V989" t="n">
-        <v>473</v>
+        <v>576</v>
       </c>
       <c r="AB989" t="n">
         <v>0</v>
@@ -54767,7 +54759,7 @@
         <v>0</v>
       </c>
       <c r="AD989" t="n">
-        <v>381</v>
+        <v>511</v>
       </c>
     </row>
     <row r="990">
@@ -54797,7 +54789,7 @@
         <v>0</v>
       </c>
       <c r="N990" t="n">
-        <v>634</v>
+        <v>807</v>
       </c>
       <c r="T990" t="n">
         <v>0</v>
@@ -54834,7 +54826,7 @@
         <v>0</v>
       </c>
       <c r="N991" t="n">
-        <v>634</v>
+        <v>809</v>
       </c>
       <c r="T991" t="n">
         <v>0</v>
@@ -54876,7 +54868,7 @@
         <v>0</v>
       </c>
       <c r="N992" t="n">
-        <v>634</v>
+        <v>810</v>
       </c>
       <c r="T992" t="n">
         <v>0</v>
@@ -54885,7 +54877,7 @@
         <v>0</v>
       </c>
       <c r="V992" t="n">
-        <v>473</v>
+        <v>577</v>
       </c>
       <c r="AB992" t="n">
         <v>0</v>
@@ -54894,7 +54886,7 @@
         <v>0</v>
       </c>
       <c r="AD992" t="n">
-        <v>381</v>
+        <v>513</v>
       </c>
     </row>
     <row r="993">
@@ -54924,7 +54916,7 @@
         <v>0</v>
       </c>
       <c r="N993" t="n">
-        <v>634</v>
+        <v>811</v>
       </c>
       <c r="T993" t="n">
         <v>0</v>
@@ -54961,7 +54953,7 @@
         <v>0</v>
       </c>
       <c r="N994" t="n">
-        <v>634</v>
+        <v>812</v>
       </c>
       <c r="T994" t="n">
         <v>0</v>
@@ -55003,7 +54995,7 @@
         <v>0</v>
       </c>
       <c r="N995" t="n">
-        <v>634</v>
+        <v>813</v>
       </c>
       <c r="T995" t="n">
         <v>0</v>
@@ -55018,7 +55010,7 @@
         <v>0</v>
       </c>
       <c r="AD995" t="n">
-        <v>381</v>
+        <v>515</v>
       </c>
     </row>
     <row r="996">
@@ -55048,7 +55040,7 @@
         <v>0</v>
       </c>
       <c r="N996" t="n">
-        <v>634</v>
+        <v>814</v>
       </c>
       <c r="T996" t="n">
         <v>0</v>
@@ -55090,7 +55082,7 @@
         <v>0</v>
       </c>
       <c r="N997" t="n">
-        <v>634</v>
+        <v>815</v>
       </c>
       <c r="T997" t="n">
         <v>0</v>
@@ -55127,7 +55119,7 @@
         <v>0</v>
       </c>
       <c r="N998" t="n">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="T998" t="n">
         <v>0</v>
@@ -55164,7 +55156,7 @@
         <v>0</v>
       </c>
       <c r="N999" t="n">
-        <v>634</v>
+        <v>819</v>
       </c>
       <c r="T999" t="n">
         <v>0</v>
@@ -55206,7 +55198,7 @@
         <v>0</v>
       </c>
       <c r="N1000" t="n">
-        <v>634</v>
+        <v>820</v>
       </c>
       <c r="T1000" t="n">
         <v>0</v>
@@ -55215,7 +55207,7 @@
         <v>0</v>
       </c>
       <c r="V1000" t="n">
-        <v>473</v>
+        <v>586</v>
       </c>
       <c r="AB1000" t="n">
         <v>0</v>
@@ -55251,7 +55243,7 @@
         <v>0</v>
       </c>
       <c r="N1001" t="n">
-        <v>634</v>
+        <v>821</v>
       </c>
       <c r="T1001" t="n">
         <v>0</v>
@@ -55293,7 +55285,7 @@
         <v>0</v>
       </c>
       <c r="N1002" t="n">
-        <v>634</v>
+        <v>822</v>
       </c>
       <c r="T1002" t="n">
         <v>0</v>
@@ -55302,7 +55294,7 @@
         <v>0</v>
       </c>
       <c r="V1002" t="n">
-        <v>473</v>
+        <v>587</v>
       </c>
       <c r="AB1002" t="n">
         <v>0</v>
@@ -55338,7 +55330,7 @@
         <v>0</v>
       </c>
       <c r="N1003" t="n">
-        <v>634</v>
+        <v>823</v>
       </c>
       <c r="T1003" t="n">
         <v>0</v>
@@ -55375,7 +55367,7 @@
         <v>0</v>
       </c>
       <c r="N1004" t="n">
-        <v>634</v>
+        <v>824</v>
       </c>
       <c r="T1004" t="n">
         <v>0</v>
@@ -55417,7 +55409,7 @@
         <v>0</v>
       </c>
       <c r="N1005" t="n">
-        <v>634</v>
+        <v>825</v>
       </c>
       <c r="T1005" t="n">
         <v>0</v>
@@ -55454,7 +55446,7 @@
         <v>0</v>
       </c>
       <c r="N1006" t="n">
-        <v>634</v>
+        <v>826</v>
       </c>
       <c r="T1006" t="n">
         <v>0</v>
@@ -55496,7 +55488,7 @@
         <v>0</v>
       </c>
       <c r="N1007" t="n">
-        <v>634</v>
+        <v>827</v>
       </c>
       <c r="T1007" t="n">
         <v>0</v>
@@ -55505,7 +55497,7 @@
         <v>0</v>
       </c>
       <c r="V1007" t="n">
-        <v>473</v>
+        <v>590</v>
       </c>
       <c r="AB1007" t="n">
         <v>0</v>
@@ -55536,7 +55528,7 @@
         <v>0</v>
       </c>
       <c r="N1008" t="n">
-        <v>634</v>
+        <v>828</v>
       </c>
       <c r="T1008" t="n">
         <v>0</v>
@@ -55578,7 +55570,7 @@
         <v>0</v>
       </c>
       <c r="N1009" t="n">
-        <v>634</v>
+        <v>829</v>
       </c>
       <c r="T1009" t="n">
         <v>0</v>
@@ -55615,7 +55607,7 @@
         <v>0</v>
       </c>
       <c r="N1010" t="n">
-        <v>634</v>
+        <v>830</v>
       </c>
       <c r="T1010" t="n">
         <v>0</v>
@@ -55657,7 +55649,7 @@
         <v>0</v>
       </c>
       <c r="N1011" t="n">
-        <v>634</v>
+        <v>831</v>
       </c>
       <c r="T1011" t="n">
         <v>0</v>
@@ -55672,7 +55664,7 @@
         <v>0</v>
       </c>
       <c r="AD1011" t="n">
-        <v>381</v>
+        <v>526</v>
       </c>
     </row>
     <row r="1012">
@@ -55702,7 +55694,7 @@
         <v>0</v>
       </c>
       <c r="N1012" t="n">
-        <v>634</v>
+        <v>832</v>
       </c>
       <c r="T1012" t="n">
         <v>0</v>
@@ -55739,7 +55731,7 @@
         <v>0</v>
       </c>
       <c r="N1013" t="n">
-        <v>634</v>
+        <v>833</v>
       </c>
       <c r="T1013" t="n">
         <v>0</v>
@@ -55781,7 +55773,7 @@
         <v>0</v>
       </c>
       <c r="N1014" t="n">
-        <v>634</v>
+        <v>834</v>
       </c>
       <c r="T1014" t="n">
         <v>0</v>
@@ -55823,7 +55815,7 @@
         <v>0</v>
       </c>
       <c r="N1015" t="n">
-        <v>634</v>
+        <v>835</v>
       </c>
       <c r="T1015" t="n">
         <v>0</v>
@@ -55860,7 +55852,7 @@
         <v>0</v>
       </c>
       <c r="N1016" t="n">
-        <v>634</v>
+        <v>836</v>
       </c>
       <c r="T1016" t="n">
         <v>0</v>
@@ -55902,7 +55894,7 @@
         <v>0</v>
       </c>
       <c r="N1017" t="n">
-        <v>634</v>
+        <v>837</v>
       </c>
       <c r="T1017" t="n">
         <v>0</v>
@@ -55939,7 +55931,7 @@
         <v>0</v>
       </c>
       <c r="N1018" t="n">
-        <v>634</v>
+        <v>838</v>
       </c>
       <c r="T1018" t="n">
         <v>0</v>
@@ -55976,7 +55968,7 @@
         <v>0</v>
       </c>
       <c r="N1019" t="n">
-        <v>634</v>
+        <v>839</v>
       </c>
       <c r="T1019" t="n">
         <v>0</v>
@@ -56018,7 +56010,7 @@
         <v>0</v>
       </c>
       <c r="N1020" t="n">
-        <v>634</v>
+        <v>840</v>
       </c>
       <c r="T1020" t="n">
         <v>0</v>
@@ -56055,7 +56047,7 @@
         <v>0</v>
       </c>
       <c r="N1021" t="n">
-        <v>634</v>
+        <v>841</v>
       </c>
       <c r="T1021" t="n">
         <v>0</v>
@@ -56092,7 +56084,7 @@
         <v>0</v>
       </c>
       <c r="N1022" t="n">
-        <v>634</v>
+        <v>842</v>
       </c>
       <c r="T1022" t="n">
         <v>0</v>
@@ -56134,7 +56126,7 @@
         <v>0</v>
       </c>
       <c r="N1023" t="n">
-        <v>634</v>
+        <v>843</v>
       </c>
       <c r="T1023" t="n">
         <v>0</v>
@@ -56176,7 +56168,7 @@
         <v>0</v>
       </c>
       <c r="N1024" t="n">
-        <v>634</v>
+        <v>844</v>
       </c>
       <c r="T1024" t="n">
         <v>0</v>
@@ -56213,7 +56205,7 @@
         <v>0</v>
       </c>
       <c r="N1025" t="n">
-        <v>634</v>
+        <v>845</v>
       </c>
       <c r="T1025" t="n">
         <v>0</v>
@@ -56222,7 +56214,7 @@
         <v>0</v>
       </c>
       <c r="V1025" t="n">
-        <v>473</v>
+        <v>593</v>
       </c>
       <c r="AB1025" t="n">
         <v>0</v>
@@ -56253,7 +56245,7 @@
         <v>0</v>
       </c>
       <c r="N1026" t="n">
-        <v>634</v>
+        <v>846</v>
       </c>
       <c r="T1026" t="n">
         <v>0</v>
@@ -56295,7 +56287,7 @@
         <v>0</v>
       </c>
       <c r="N1027" t="n">
-        <v>634</v>
+        <v>847</v>
       </c>
       <c r="T1027" t="n">
         <v>0</v>
@@ -56337,7 +56329,7 @@
         <v>0</v>
       </c>
       <c r="N1028" t="n">
-        <v>634</v>
+        <v>848</v>
       </c>
       <c r="T1028" t="n">
         <v>0</v>
@@ -56379,7 +56371,7 @@
         <v>0</v>
       </c>
       <c r="N1029" t="n">
-        <v>634</v>
+        <v>849</v>
       </c>
       <c r="T1029" t="n">
         <v>0</v>
@@ -56421,7 +56413,7 @@
         <v>0</v>
       </c>
       <c r="N1030" t="n">
-        <v>634</v>
+        <v>850</v>
       </c>
       <c r="T1030" t="n">
         <v>0</v>
@@ -56458,7 +56450,7 @@
         <v>0</v>
       </c>
       <c r="N1031" t="n">
-        <v>634</v>
+        <v>851</v>
       </c>
       <c r="T1031" t="n">
         <v>0</v>
@@ -56500,7 +56492,7 @@
         <v>0</v>
       </c>
       <c r="N1032" t="n">
-        <v>634</v>
+        <v>852</v>
       </c>
       <c r="T1032" t="n">
         <v>0</v>
@@ -56542,7 +56534,7 @@
         <v>0</v>
       </c>
       <c r="N1033" t="n">
-        <v>634</v>
+        <v>853</v>
       </c>
       <c r="T1033" t="n">
         <v>0</v>
@@ -56579,7 +56571,7 @@
         <v>0</v>
       </c>
       <c r="N1034" t="n">
-        <v>634</v>
+        <v>854</v>
       </c>
       <c r="T1034" t="n">
         <v>0</v>
@@ -56616,7 +56608,7 @@
         <v>0</v>
       </c>
       <c r="N1035" t="n">
-        <v>634</v>
+        <v>855</v>
       </c>
       <c r="O1035" t="n">
         <v>0</v>
@@ -56628,7 +56620,7 @@
         <v>0</v>
       </c>
       <c r="V1035" t="n">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="AB1035" t="n">
         <v>0</v>
@@ -56664,7 +56656,7 @@
         <v>0</v>
       </c>
       <c r="N1036" t="n">
-        <v>634</v>
+        <v>856</v>
       </c>
       <c r="T1036" t="n">
         <v>0</v>
@@ -56706,7 +56698,7 @@
         <v>0</v>
       </c>
       <c r="N1037" t="n">
-        <v>634</v>
+        <v>857</v>
       </c>
       <c r="T1037" t="n">
         <v>0</v>
@@ -56748,7 +56740,7 @@
         <v>0</v>
       </c>
       <c r="N1038" t="n">
-        <v>634</v>
+        <v>858</v>
       </c>
       <c r="T1038" t="n">
         <v>0</v>
@@ -56790,7 +56782,7 @@
         <v>0</v>
       </c>
       <c r="N1039" t="n">
-        <v>634</v>
+        <v>859</v>
       </c>
       <c r="T1039" t="n">
         <v>0</v>
@@ -56832,7 +56824,7 @@
         <v>0</v>
       </c>
       <c r="N1040" t="n">
-        <v>634</v>
+        <v>860</v>
       </c>
       <c r="T1040" t="n">
         <v>0</v>
@@ -56841,7 +56833,7 @@
         <v>0</v>
       </c>
       <c r="V1040" t="n">
-        <v>473</v>
+        <v>596</v>
       </c>
       <c r="AB1040" t="n">
         <v>0</v>
@@ -56850,7 +56842,7 @@
         <v>0</v>
       </c>
       <c r="AD1040" t="n">
-        <v>381</v>
+        <v>530</v>
       </c>
     </row>
     <row r="1041">
@@ -56875,7 +56867,7 @@
         <v>0</v>
       </c>
       <c r="N1041" t="n">
-        <v>634</v>
+        <v>862</v>
       </c>
       <c r="T1041" t="n">
         <v>0</v>
@@ -56917,7 +56909,7 @@
         <v>0</v>
       </c>
       <c r="N1042" t="n">
-        <v>634</v>
+        <v>863</v>
       </c>
       <c r="T1042" t="n">
         <v>0</v>
@@ -56959,7 +56951,7 @@
         <v>0</v>
       </c>
       <c r="N1043" t="n">
-        <v>634</v>
+        <v>864</v>
       </c>
       <c r="T1043" t="n">
         <v>0</v>
@@ -57001,7 +56993,7 @@
         <v>0</v>
       </c>
       <c r="N1044" t="n">
-        <v>634</v>
+        <v>865</v>
       </c>
       <c r="O1044" t="n">
         <v>0</v>
@@ -57013,7 +57005,7 @@
         <v>0</v>
       </c>
       <c r="V1044" t="n">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="W1044" t="n">
         <v>0</v>
@@ -57025,7 +57017,7 @@
         <v>0</v>
       </c>
       <c r="AD1044" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="1045">
@@ -57071,7 +57063,7 @@
         <v>0</v>
       </c>
       <c r="AD1045" t="n">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="1046">
@@ -57110,7 +57102,7 @@
         <v>0</v>
       </c>
       <c r="V1046" t="n">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="Y1046" t="n">
         <v>0</v>
@@ -57122,7 +57114,7 @@
         <v>0</v>
       </c>
       <c r="AD1046" t="n">
-        <v>381</v>
+        <v>407</v>
       </c>
     </row>
     <row r="1047">
@@ -57161,7 +57153,7 @@
         <v>0</v>
       </c>
       <c r="V1047" t="n">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="AB1047" t="n">
         <v>0</v>
@@ -57206,7 +57198,7 @@
         <v>0</v>
       </c>
       <c r="V1048" t="n">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="AB1048" t="n">
         <v>0</v>
@@ -57251,7 +57243,7 @@
         <v>0</v>
       </c>
       <c r="V1049" t="n">
-        <v>473</v>
+        <v>487</v>
       </c>
       <c r="AB1049" t="n">
         <v>0</v>
@@ -57296,7 +57288,7 @@
         <v>0</v>
       </c>
       <c r="V1050" t="n">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="AB1050" t="n">
         <v>0</v>
@@ -57341,7 +57333,7 @@
         <v>0</v>
       </c>
       <c r="V1051" t="n">
-        <v>473</v>
+        <v>489</v>
       </c>
       <c r="AB1051" t="n">
         <v>0</v>
@@ -57386,7 +57378,7 @@
         <v>0</v>
       </c>
       <c r="V1052" t="n">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="AB1052" t="n">
         <v>0</v>
@@ -57431,7 +57423,7 @@
         <v>0</v>
       </c>
       <c r="V1053" t="n">
-        <v>473</v>
+        <v>492</v>
       </c>
       <c r="AB1053" t="n">
         <v>0</v>
@@ -57476,7 +57468,7 @@
         <v>0</v>
       </c>
       <c r="V1054" t="n">
-        <v>473</v>
+        <v>493</v>
       </c>
       <c r="AB1054" t="n">
         <v>0</v>
@@ -57521,7 +57513,7 @@
         <v>0</v>
       </c>
       <c r="V1055" t="n">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="AB1055" t="n">
         <v>0</v>
@@ -57566,7 +57558,7 @@
         <v>0</v>
       </c>
       <c r="V1056" t="n">
-        <v>473</v>
+        <v>497</v>
       </c>
       <c r="AB1056" t="n">
         <v>0</v>
@@ -57603,7 +57595,7 @@
         <v>0</v>
       </c>
       <c r="V1057" t="n">
-        <v>473</v>
+        <v>499</v>
       </c>
       <c r="AB1057" t="n">
         <v>0</v>
@@ -57640,7 +57632,7 @@
         <v>0</v>
       </c>
       <c r="V1058" t="n">
-        <v>473</v>
+        <v>500</v>
       </c>
       <c r="AB1058" t="n">
         <v>0</v>
@@ -57682,7 +57674,7 @@
         <v>0</v>
       </c>
       <c r="V1059" t="n">
-        <v>473</v>
+        <v>503</v>
       </c>
       <c r="AB1059" t="n">
         <v>0</v>
@@ -57691,7 +57683,7 @@
         <v>0</v>
       </c>
       <c r="AD1059" t="n">
-        <v>381</v>
+        <v>415</v>
       </c>
     </row>
     <row r="1060">
@@ -57722,7 +57714,7 @@
         <v>0</v>
       </c>
       <c r="V1060" t="n">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="AB1060" t="n">
         <v>0</v>
@@ -57759,7 +57751,7 @@
         <v>0</v>
       </c>
       <c r="V1061" t="n">
-        <v>473</v>
+        <v>506</v>
       </c>
       <c r="AB1061" t="n">
         <v>0</v>
@@ -57796,7 +57788,7 @@
         <v>0</v>
       </c>
       <c r="V1062" t="n">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="AB1062" t="n">
         <v>0</v>
@@ -57833,7 +57825,7 @@
         <v>0</v>
       </c>
       <c r="V1063" t="n">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="AB1063" t="n">
         <v>0</v>
@@ -57870,7 +57862,7 @@
         <v>0</v>
       </c>
       <c r="V1064" t="n">
-        <v>473</v>
+        <v>509</v>
       </c>
       <c r="AB1064" t="n">
         <v>0</v>
@@ -57912,7 +57904,7 @@
         <v>0</v>
       </c>
       <c r="V1065" t="n">
-        <v>473</v>
+        <v>512</v>
       </c>
       <c r="AB1065" t="n">
         <v>0</v>
@@ -57954,7 +57946,7 @@
         <v>0</v>
       </c>
       <c r="V1066" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="AB1066" t="n">
         <v>0</v>
@@ -57996,7 +57988,7 @@
         <v>0</v>
       </c>
       <c r="V1067" t="n">
-        <v>473</v>
+        <v>516</v>
       </c>
       <c r="AB1067" t="n">
         <v>0</v>
@@ -58038,7 +58030,7 @@
         <v>0</v>
       </c>
       <c r="V1068" t="n">
-        <v>473</v>
+        <v>519</v>
       </c>
       <c r="AB1068" t="n">
         <v>0</v>
@@ -58075,7 +58067,7 @@
         <v>0</v>
       </c>
       <c r="V1069" t="n">
-        <v>473</v>
+        <v>520</v>
       </c>
       <c r="AB1069" t="n">
         <v>0</v>
@@ -58084,7 +58076,7 @@
         <v>0</v>
       </c>
       <c r="AD1069" t="n">
-        <v>381</v>
+        <v>432</v>
       </c>
     </row>
     <row r="1070">
@@ -58115,7 +58107,7 @@
         <v>0</v>
       </c>
       <c r="V1070" t="n">
-        <v>473</v>
+        <v>521</v>
       </c>
       <c r="AB1070" t="n">
         <v>0</v>
@@ -58157,7 +58149,7 @@
         <v>0</v>
       </c>
       <c r="V1071" t="n">
-        <v>473</v>
+        <v>524</v>
       </c>
       <c r="AB1071" t="n">
         <v>0</v>
@@ -58194,7 +58186,7 @@
         <v>0</v>
       </c>
       <c r="V1072" t="n">
-        <v>473</v>
+        <v>527</v>
       </c>
       <c r="AB1072" t="n">
         <v>0</v>
@@ -58203,7 +58195,7 @@
         <v>0</v>
       </c>
       <c r="AD1072" t="n">
-        <v>381</v>
+        <v>437</v>
       </c>
     </row>
     <row r="1073">
@@ -58234,7 +58226,7 @@
         <v>0</v>
       </c>
       <c r="V1073" t="n">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="AB1073" t="n">
         <v>0</v>
@@ -58271,7 +58263,7 @@
         <v>0</v>
       </c>
       <c r="V1074" t="n">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="AB1074" t="n">
         <v>0</v>
@@ -58313,7 +58305,7 @@
         <v>0</v>
       </c>
       <c r="V1075" t="n">
-        <v>473</v>
+        <v>534</v>
       </c>
       <c r="AB1075" t="n">
         <v>0</v>
@@ -58355,7 +58347,7 @@
         <v>0</v>
       </c>
       <c r="V1076" t="n">
-        <v>473</v>
+        <v>535</v>
       </c>
       <c r="AB1076" t="n">
         <v>0</v>
@@ -58397,7 +58389,7 @@
         <v>0</v>
       </c>
       <c r="V1077" t="n">
-        <v>473</v>
+        <v>539</v>
       </c>
       <c r="AB1077" t="n">
         <v>0</v>
@@ -58439,7 +58431,7 @@
         <v>0</v>
       </c>
       <c r="V1078" t="n">
-        <v>473</v>
+        <v>540</v>
       </c>
       <c r="AB1078" t="n">
         <v>0</v>
@@ -58481,7 +58473,7 @@
         <v>0</v>
       </c>
       <c r="V1079" t="n">
-        <v>473</v>
+        <v>541</v>
       </c>
       <c r="AB1079" t="n">
         <v>0</v>
@@ -58523,7 +58515,7 @@
         <v>0</v>
       </c>
       <c r="V1080" t="n">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="AB1080" t="n">
         <v>0</v>
@@ -58565,7 +58557,7 @@
         <v>0</v>
       </c>
       <c r="V1081" t="n">
-        <v>473</v>
+        <v>546</v>
       </c>
       <c r="AB1081" t="n">
         <v>0</v>
@@ -58602,7 +58594,7 @@
         <v>0</v>
       </c>
       <c r="V1082" t="n">
-        <v>473</v>
+        <v>550</v>
       </c>
       <c r="AB1082" t="n">
         <v>0</v>
@@ -58644,7 +58636,7 @@
         <v>0</v>
       </c>
       <c r="V1083" t="n">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="AB1083" t="n">
         <v>0</v>
@@ -58653,7 +58645,7 @@
         <v>0</v>
       </c>
       <c r="AD1083" t="n">
-        <v>381</v>
+        <v>482</v>
       </c>
     </row>
     <row r="1084">
@@ -58689,7 +58681,7 @@
         <v>0</v>
       </c>
       <c r="V1084" t="n">
-        <v>473</v>
+        <v>555</v>
       </c>
       <c r="AB1084" t="n">
         <v>0</v>
@@ -58731,7 +58723,7 @@
         <v>0</v>
       </c>
       <c r="V1085" t="n">
-        <v>473</v>
+        <v>556</v>
       </c>
       <c r="AB1085" t="n">
         <v>0</v>
@@ -58773,7 +58765,7 @@
         <v>0</v>
       </c>
       <c r="V1086" t="n">
-        <v>473</v>
+        <v>557</v>
       </c>
       <c r="AB1086" t="n">
         <v>0</v>
@@ -58782,7 +58774,7 @@
         <v>0</v>
       </c>
       <c r="AD1086" t="n">
-        <v>381</v>
+        <v>494</v>
       </c>
     </row>
     <row r="1087">
@@ -58818,7 +58810,7 @@
         <v>0</v>
       </c>
       <c r="V1087" t="n">
-        <v>473</v>
+        <v>558</v>
       </c>
       <c r="AB1087" t="n">
         <v>0</v>
@@ -58860,7 +58852,7 @@
         <v>0</v>
       </c>
       <c r="V1088" t="n">
-        <v>473</v>
+        <v>559</v>
       </c>
       <c r="AB1088" t="n">
         <v>0</v>
@@ -58902,7 +58894,7 @@
         <v>0</v>
       </c>
       <c r="V1089" t="n">
-        <v>473</v>
+        <v>566</v>
       </c>
       <c r="AB1089" t="n">
         <v>0</v>
@@ -58944,7 +58936,7 @@
         <v>0</v>
       </c>
       <c r="V1090" t="n">
-        <v>473</v>
+        <v>567</v>
       </c>
       <c r="AB1090" t="n">
         <v>0</v>
@@ -58981,7 +58973,7 @@
         <v>0</v>
       </c>
       <c r="V1091" t="n">
-        <v>473</v>
+        <v>569</v>
       </c>
       <c r="AB1091" t="n">
         <v>0</v>
@@ -59018,7 +59010,7 @@
         <v>0</v>
       </c>
       <c r="V1092" t="n">
-        <v>473</v>
+        <v>574</v>
       </c>
       <c r="AB1092" t="n">
         <v>0</v>
@@ -59060,7 +59052,7 @@
         <v>0</v>
       </c>
       <c r="V1093" t="n">
-        <v>473</v>
+        <v>575</v>
       </c>
       <c r="AB1093" t="n">
         <v>0</v>
@@ -59102,7 +59094,7 @@
         <v>0</v>
       </c>
       <c r="V1094" t="n">
-        <v>473</v>
+        <v>578</v>
       </c>
       <c r="AB1094" t="n">
         <v>0</v>
@@ -59139,7 +59131,7 @@
         <v>0</v>
       </c>
       <c r="V1095" t="n">
-        <v>473</v>
+        <v>580</v>
       </c>
       <c r="AB1095" t="n">
         <v>0</v>
@@ -59176,7 +59168,7 @@
         <v>0</v>
       </c>
       <c r="V1096" t="n">
-        <v>473</v>
+        <v>581</v>
       </c>
       <c r="AB1096" t="n">
         <v>0</v>
@@ -59185,7 +59177,7 @@
         <v>0</v>
       </c>
       <c r="AD1096" t="n">
-        <v>381</v>
+        <v>521</v>
       </c>
     </row>
     <row r="1097">
@@ -59221,7 +59213,7 @@
         <v>0</v>
       </c>
       <c r="V1097" t="n">
-        <v>473</v>
+        <v>584</v>
       </c>
       <c r="AB1097" t="n">
         <v>0</v>
@@ -59263,7 +59255,7 @@
         <v>0</v>
       </c>
       <c r="V1098" t="n">
-        <v>473</v>
+        <v>588</v>
       </c>
       <c r="W1098" t="n">
         <v>0</v>
@@ -59275,7 +59267,7 @@
         <v>0</v>
       </c>
       <c r="AD1098" t="n">
-        <v>381</v>
+        <v>398</v>
       </c>
     </row>
     <row r="1099">
@@ -59311,7 +59303,7 @@
         <v>0</v>
       </c>
       <c r="V1099" t="n">
-        <v>473</v>
+        <v>589</v>
       </c>
       <c r="AB1099" t="n">
         <v>0</v>
@@ -59353,7 +59345,7 @@
         <v>0</v>
       </c>
       <c r="V1100" t="n">
-        <v>473</v>
+        <v>600</v>
       </c>
       <c r="AB1100" t="n">
         <v>0</v>
@@ -59395,7 +59387,7 @@
         <v>0</v>
       </c>
       <c r="V1101" t="n">
-        <v>473</v>
+        <v>601</v>
       </c>
       <c r="AB1101" t="n">
         <v>0</v>
@@ -59432,7 +59424,7 @@
         <v>0</v>
       </c>
       <c r="V1102" t="n">
-        <v>473</v>
+        <v>602</v>
       </c>
       <c r="AB1102" t="n">
         <v>0</v>
@@ -59474,7 +59466,7 @@
         <v>0</v>
       </c>
       <c r="V1103" t="n">
-        <v>473</v>
+        <v>603</v>
       </c>
       <c r="AB1103" t="n">
         <v>0</v>
@@ -59511,7 +59503,7 @@
         <v>0</v>
       </c>
       <c r="V1104" t="n">
-        <v>473</v>
+        <v>604</v>
       </c>
       <c r="AB1104" t="n">
         <v>0</v>
@@ -59553,7 +59545,7 @@
         <v>0</v>
       </c>
       <c r="V1105" t="n">
-        <v>473</v>
+        <v>605</v>
       </c>
       <c r="AB1105" t="n">
         <v>0</v>
@@ -59595,7 +59587,7 @@
         <v>0</v>
       </c>
       <c r="V1106" t="n">
-        <v>473</v>
+        <v>606</v>
       </c>
       <c r="AB1106" t="n">
         <v>0</v>
@@ -59649,7 +59641,7 @@
         <v>0</v>
       </c>
       <c r="AD1107" t="n">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="1108">
@@ -59689,7 +59681,7 @@
         <v>0</v>
       </c>
       <c r="AD1108" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="1109">
@@ -59734,7 +59726,7 @@
         <v>0</v>
       </c>
       <c r="AD1109" t="n">
-        <v>381</v>
+        <v>386</v>
       </c>
     </row>
     <row r="1110">
@@ -59779,7 +59771,7 @@
         <v>0</v>
       </c>
       <c r="AD1110" t="n">
-        <v>381</v>
+        <v>390</v>
       </c>
     </row>
     <row r="1111">
@@ -59819,7 +59811,7 @@
         <v>0</v>
       </c>
       <c r="AD1111" t="n">
-        <v>381</v>
+        <v>392</v>
       </c>
     </row>
     <row r="1112">
@@ -59864,7 +59856,7 @@
         <v>0</v>
       </c>
       <c r="AD1112" t="n">
-        <v>381</v>
+        <v>393</v>
       </c>
     </row>
     <row r="1113">
@@ -59909,7 +59901,7 @@
         <v>0</v>
       </c>
       <c r="AD1113" t="n">
-        <v>381</v>
+        <v>395</v>
       </c>
     </row>
     <row r="1114">
@@ -59954,7 +59946,7 @@
         <v>0</v>
       </c>
       <c r="AD1114" t="n">
-        <v>381</v>
+        <v>396</v>
       </c>
     </row>
     <row r="1115">
@@ -59994,7 +59986,7 @@
         <v>0</v>
       </c>
       <c r="AD1115" t="n">
-        <v>381</v>
+        <v>399</v>
       </c>
     </row>
     <row r="1116">
@@ -60034,7 +60026,7 @@
         <v>0</v>
       </c>
       <c r="AD1116" t="n">
-        <v>381</v>
+        <v>400</v>
       </c>
     </row>
     <row r="1117">
@@ -60079,7 +60071,7 @@
         <v>0</v>
       </c>
       <c r="AD1117" t="n">
-        <v>381</v>
+        <v>406</v>
       </c>
     </row>
     <row r="1118">
@@ -60124,7 +60116,7 @@
         <v>0</v>
       </c>
       <c r="AD1118" t="n">
-        <v>381</v>
+        <v>408</v>
       </c>
     </row>
     <row r="1119">
@@ -60164,7 +60156,7 @@
         <v>0</v>
       </c>
       <c r="AD1119" t="n">
-        <v>381</v>
+        <v>409</v>
       </c>
     </row>
     <row r="1120">
@@ -60201,7 +60193,7 @@
         <v>0</v>
       </c>
       <c r="AD1120" t="n">
-        <v>381</v>
+        <v>411</v>
       </c>
     </row>
     <row r="1121">
@@ -60243,7 +60235,7 @@
         <v>0</v>
       </c>
       <c r="AD1121" t="n">
-        <v>381</v>
+        <v>413</v>
       </c>
     </row>
     <row r="1122">
@@ -60285,7 +60277,7 @@
         <v>0</v>
       </c>
       <c r="AD1122" t="n">
-        <v>381</v>
+        <v>414</v>
       </c>
     </row>
     <row r="1123">
@@ -60327,7 +60319,7 @@
         <v>0</v>
       </c>
       <c r="AD1123" t="n">
-        <v>381</v>
+        <v>419</v>
       </c>
     </row>
     <row r="1124">
@@ -60369,7 +60361,7 @@
         <v>0</v>
       </c>
       <c r="AD1124" t="n">
-        <v>381</v>
+        <v>420</v>
       </c>
     </row>
     <row r="1125">
@@ -60406,7 +60398,7 @@
         <v>0</v>
       </c>
       <c r="AD1125" t="n">
-        <v>381</v>
+        <v>421</v>
       </c>
     </row>
     <row r="1126">
@@ -60443,7 +60435,7 @@
         <v>0</v>
       </c>
       <c r="AD1126" t="n">
-        <v>381</v>
+        <v>424</v>
       </c>
     </row>
     <row r="1127">
@@ -60485,7 +60477,7 @@
         <v>0</v>
       </c>
       <c r="AD1127" t="n">
-        <v>381</v>
+        <v>433</v>
       </c>
     </row>
     <row r="1128">
@@ -60522,7 +60514,7 @@
         <v>0</v>
       </c>
       <c r="AD1128" t="n">
-        <v>381</v>
+        <v>445</v>
       </c>
     </row>
     <row r="1129">
@@ -60564,7 +60556,7 @@
         <v>0</v>
       </c>
       <c r="AD1129" t="n">
-        <v>381</v>
+        <v>452</v>
       </c>
     </row>
     <row r="1130">
@@ -60601,7 +60593,7 @@
         <v>0</v>
       </c>
       <c r="AD1130" t="n">
-        <v>381</v>
+        <v>453</v>
       </c>
     </row>
     <row r="1131">
@@ -60643,7 +60635,7 @@
         <v>0</v>
       </c>
       <c r="AD1131" t="n">
-        <v>381</v>
+        <v>458</v>
       </c>
     </row>
     <row r="1132">
@@ -60685,7 +60677,7 @@
         <v>0</v>
       </c>
       <c r="AD1132" t="n">
-        <v>381</v>
+        <v>460</v>
       </c>
     </row>
     <row r="1133">
@@ -60727,7 +60719,7 @@
         <v>0</v>
       </c>
       <c r="AD1133" t="n">
-        <v>381</v>
+        <v>462</v>
       </c>
     </row>
     <row r="1134">
@@ -60769,7 +60761,7 @@
         <v>0</v>
       </c>
       <c r="AD1134" t="n">
-        <v>381</v>
+        <v>463</v>
       </c>
     </row>
     <row r="1135">
@@ -60806,7 +60798,7 @@
         <v>0</v>
       </c>
       <c r="AD1135" t="n">
-        <v>381</v>
+        <v>468</v>
       </c>
     </row>
     <row r="1136">
@@ -60843,7 +60835,7 @@
         <v>0</v>
       </c>
       <c r="AD1136" t="n">
-        <v>381</v>
+        <v>469</v>
       </c>
     </row>
     <row r="1137">
@@ -60885,7 +60877,7 @@
         <v>0</v>
       </c>
       <c r="AD1137" t="n">
-        <v>381</v>
+        <v>476</v>
       </c>
     </row>
     <row r="1138">
@@ -60922,7 +60914,7 @@
         <v>0</v>
       </c>
       <c r="AD1138" t="n">
-        <v>381</v>
+        <v>480</v>
       </c>
     </row>
     <row r="1139">
@@ -60964,7 +60956,7 @@
         <v>0</v>
       </c>
       <c r="AD1139" t="n">
-        <v>381</v>
+        <v>485</v>
       </c>
     </row>
     <row r="1140">
@@ -61001,7 +60993,7 @@
         <v>0</v>
       </c>
       <c r="AD1140" t="n">
-        <v>381</v>
+        <v>486</v>
       </c>
     </row>
     <row r="1141">
@@ -61043,7 +61035,7 @@
         <v>0</v>
       </c>
       <c r="AD1141" t="n">
-        <v>381</v>
+        <v>490</v>
       </c>
     </row>
     <row r="1142">
@@ -61080,7 +61072,7 @@
         <v>0</v>
       </c>
       <c r="AD1142" t="n">
-        <v>381</v>
+        <v>493</v>
       </c>
     </row>
     <row r="1143">
@@ -61122,7 +61114,7 @@
         <v>0</v>
       </c>
       <c r="AD1143" t="n">
-        <v>381</v>
+        <v>505</v>
       </c>
     </row>
     <row r="1144">
@@ -61159,7 +61151,7 @@
         <v>0</v>
       </c>
       <c r="AD1144" t="n">
-        <v>381</v>
+        <v>506</v>
       </c>
     </row>
     <row r="1145">
@@ -61196,7 +61188,7 @@
         <v>0</v>
       </c>
       <c r="AD1145" t="n">
-        <v>381</v>
+        <v>507</v>
       </c>
     </row>
     <row r="1146">
@@ -61233,7 +61225,7 @@
         <v>0</v>
       </c>
       <c r="AD1146" t="n">
-        <v>381</v>
+        <v>508</v>
       </c>
     </row>
     <row r="1147">
@@ -61275,7 +61267,7 @@
         <v>0</v>
       </c>
       <c r="AD1147" t="n">
-        <v>381</v>
+        <v>518</v>
       </c>
     </row>
     <row r="1148">
@@ -61317,7 +61309,7 @@
         <v>0</v>
       </c>
       <c r="AD1148" t="n">
-        <v>381</v>
+        <v>523</v>
       </c>
     </row>
     <row r="1149">
@@ -61359,7 +61351,7 @@
         <v>0</v>
       </c>
       <c r="AD1149" t="n">
-        <v>381</v>
+        <v>525</v>
       </c>
     </row>
     <row r="1150">
@@ -61401,7 +61393,7 @@
         <v>0</v>
       </c>
       <c r="AD1150" t="n">
-        <v>381</v>
+        <v>528</v>
       </c>
     </row>
     <row r="1151">
@@ -61443,7 +61435,7 @@
         <v>0</v>
       </c>
       <c r="AD1151" t="n">
-        <v>381</v>
+        <v>531</v>
       </c>
     </row>
     <row r="1152">
@@ -61480,7 +61472,7 @@
         <v>0</v>
       </c>
       <c r="AD1152" t="n">
-        <v>381</v>
+        <v>532</v>
       </c>
     </row>
     <row r="1153">
@@ -61517,7 +61509,7 @@
         <v>0</v>
       </c>
       <c r="AD1153" t="n">
-        <v>381</v>
+        <v>533</v>
       </c>
     </row>
     <row r="1154">
@@ -61559,7 +61551,7 @@
         <v>0</v>
       </c>
       <c r="AD1154" t="n">
-        <v>381</v>
+        <v>534</v>
       </c>
     </row>
     <row r="1155">
@@ -61596,7 +61588,7 @@
         <v>0</v>
       </c>
       <c r="AD1155" t="n">
-        <v>381</v>
+        <v>535</v>
       </c>
     </row>
     <row r="1156">
@@ -61638,7 +61630,7 @@
         <v>0</v>
       </c>
       <c r="AD1156" t="n">
-        <v>381</v>
+        <v>536</v>
       </c>
     </row>
     <row r="1157">
@@ -61675,7 +61667,7 @@
         <v>0</v>
       </c>
       <c r="AD1157" t="n">
-        <v>381</v>
+        <v>537</v>
       </c>
     </row>
     <row r="1158">
@@ -61735,7 +61727,7 @@
         <v>6942</v>
       </c>
       <c r="AD1158" t="n">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="1159">
@@ -61783,7 +61775,7 @@
         <v>0</v>
       </c>
       <c r="V1159" t="n">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="AB1159" t="n">
         <v>0</v>
